--- a/master_sheet.xlsx
+++ b/master_sheet.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN157"/>
+  <dimension ref="A1:BU157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,6 +764,41 @@
           <t>Performance Signal</t>
         </is>
       </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks 3</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Performance Signal Score</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Assessment Criteria</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Input Value</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Data Point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -785,8 +824,14 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Risk 1</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>19</v>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Risk 1</t>
@@ -836,7 +881,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>519000000</v>
+        <v>3200000000</v>
       </c>
       <c r="U2" t="n">
         <v>2023</v>
@@ -856,11 +901,11 @@
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>-0.05</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Satisfactory</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -869,7 +914,7 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>500000000</v>
+        <v>2800000000</v>
       </c>
       <c r="AD2" t="n">
         <v>2</v>
@@ -964,7 +1009,7 @@
         </is>
       </c>
       <c r="BD2" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
@@ -977,7 +1022,7 @@
         </is>
       </c>
       <c r="BG2" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
@@ -985,7 +1030,7 @@
         </is>
       </c>
       <c r="BI2" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
@@ -1006,6 +1051,35 @@
       <c r="BN2" t="inlineStr">
         <is>
           <t>Innovation &amp; Technology Deployment</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>DevCo has maintained adherence to the Vision, with a few outstanding variance approvals pending. The DevCo has demonstrated poor consideration for construction methodology simplification during the design phase, however, is demonstrating effective use of BIM software for interdisciplinary coordination across most projects.</t>
+        </is>
+      </c>
+      <c r="BP2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>Similarity between Original/Approved and Latest CGI and Animation</t>
+        </is>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>Percentage similarity between Approved CGI and Latest CGI at same angle and scale</t>
         </is>
       </c>
     </row>
@@ -1035,8 +1109,14 @@
         <v>1250</v>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Risk 2</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Risk 2</t>
@@ -1082,13 +1162,13 @@
         <v>2024</v>
       </c>
       <c r="V3" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="W3" t="n">
-        <v>420</v>
+        <v>1200</v>
       </c>
       <c r="X3" t="n">
-        <v>420</v>
+        <v>1200</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -1099,7 +1179,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>525000000</v>
+        <v>3100000000</v>
       </c>
       <c r="AD3" t="n">
         <v>5</v>
@@ -1191,7 +1271,7 @@
         </is>
       </c>
       <c r="BG3" t="n">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
@@ -1206,6 +1286,19 @@
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
       <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>Percentage similarity between Approved Animation and Latest Animation at same camera angle</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1237,11 +1330,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Risk 1</t>
+          <t>Risk 3</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -1292,19 +1385,19 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2000000</v>
+        <v>20000000</v>
       </c>
       <c r="U4" t="n">
         <v>2025</v>
       </c>
       <c r="V4" t="n">
-        <v>440</v>
+        <v>1500</v>
       </c>
       <c r="W4" t="n">
-        <v>455</v>
+        <v>1800</v>
       </c>
       <c r="X4" t="n">
-        <v>455</v>
+        <v>1800</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
@@ -1340,7 +1433,11 @@
           <t>Packaging &amp; Phasing Strategy</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
@@ -1418,6 +1515,33 @@
       <c r="BL4" t="inlineStr"/>
       <c r="BM4" t="inlineStr"/>
       <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>Does the Latest Material Palette &amp; Finish Schedule support the look of the Approved CGI?</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>Material Palette &amp; Finish Schedule</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1447,11 +1571,11 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Risk 2</t>
+          <t>Risk 4</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -1492,19 +1616,19 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1500000</v>
+        <v>7500000</v>
       </c>
       <c r="U5" t="n">
         <v>2026</v>
       </c>
       <c r="V5" t="n">
-        <v>460</v>
+        <v>2000</v>
       </c>
       <c r="W5" t="n">
-        <v>480</v>
+        <v>2200</v>
       </c>
       <c r="X5" t="n">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1530,7 +1654,11 @@
           <t>Execution &amp; Site Logistics</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
@@ -1608,6 +1736,33 @@
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>Does the DevCo have Design &amp; Technical Guidelines (including Look &amp; Feel Design Guidelines)?</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>Design and Technical Guidelines</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1635,11 +1790,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Risk 3</t>
+          <t>Risk 5</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -1689,20 +1844,18 @@
           <t>Contingency Utilization Rate</t>
         </is>
       </c>
-      <c r="T6" t="n">
-        <v>200000</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
         <v>2027</v>
       </c>
       <c r="V6" t="n">
-        <v>480</v>
+        <v>2500</v>
       </c>
       <c r="W6" t="n">
-        <v>500</v>
+        <v>2750</v>
       </c>
       <c r="X6" t="n">
-        <v>510</v>
+        <v>2900</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
@@ -1738,13 +1891,17 @@
           <t xml:space="preserve">Procurement Strategy </t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Nears Misses</t>
+          <t>Near Misses</t>
         </is>
       </c>
       <c r="AL6" t="n">
@@ -1816,6 +1973,33 @@
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>Do DevCo projects comply with DDTG?</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Look &amp; Feel Guideline </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1837,14 +2021,8 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Risk 4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>Risk 6</t>
@@ -1884,19 +2062,19 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>5000000</v>
+        <v>200000</v>
       </c>
       <c r="U7" t="n">
         <v>2028</v>
       </c>
       <c r="V7" t="n">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="W7" t="n">
-        <v>510</v>
+        <v>3100</v>
       </c>
       <c r="X7" t="n">
-        <v>525</v>
+        <v>3200</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
@@ -1986,6 +2164,31 @@
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>% variance from approved Built-Up Area (BUA)</t>
+        </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>16</v>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>Latest BUA</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2007,14 +2210,8 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Risk 5</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>Risk 7</t>
@@ -2064,7 +2261,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>5000000</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -2170,6 +2367,19 @@
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr"/>
       <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="n">
+        <v>14</v>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>Approved BUA</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2244,7 +2454,7 @@
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>0.00392156862745098</v>
+        <v>0.0006896551724137931</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -2305,7 +2515,7 @@
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr"/>
@@ -2320,10 +2530,8 @@
           <t>Date of latest approved Procurement Plan</t>
         </is>
       </c>
-      <c r="BG9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="BG9" s="2" t="n">
+        <v>45741</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
@@ -2331,13 +2539,36 @@
         </is>
       </c>
       <c r="BI9" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="inlineStr"/>
       <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="n">
+        <v>0.04166666666666671</v>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>% variance in land use permit area</t>
+        </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>Latest Land Area</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2425,7 +2656,7 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>510000000</v>
+        <v>2900000000</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -2440,7 +2671,11 @@
           <t xml:space="preserve">Workforce Availability </t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
@@ -2472,7 +2707,7 @@
         </is>
       </c>
       <c r="BB10" t="n">
-        <v>1.3</v>
+        <v>0.05</v>
       </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
@@ -2487,7 +2722,7 @@
         </is>
       </c>
       <c r="BG10" t="n">
-        <v>0.13</v>
+        <v>5</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
@@ -2512,6 +2747,19 @@
       </c>
       <c r="BM10" t="inlineStr"/>
       <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>Approved Land Area</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2614,7 +2862,11 @@
           <t xml:space="preserve">Resource Availability </t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
@@ -2651,7 +2903,7 @@
         </is>
       </c>
       <c r="BG11" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
@@ -2666,6 +2918,29 @@
       <c r="BL11" t="inlineStr"/>
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>% variance from approved population</t>
+        </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>Latest Population</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2760,7 +3035,7 @@
         </is>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="BC12" t="inlineStr">
         <is>
@@ -2781,7 +3056,7 @@
         </is>
       </c>
       <c r="BG12" t="n">
-        <v>0.4</v>
+        <v>10000</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
@@ -2796,6 +3071,19 @@
       <c r="BL12" t="inlineStr"/>
       <c r="BM12" t="inlineStr"/>
       <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="n">
+        <v>950</v>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>Approved Population</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2905,7 +3193,7 @@
         </is>
       </c>
       <c r="BG13" t="n">
-        <v>0.4</v>
+        <v>11000</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
@@ -2920,6 +3208,31 @@
       <c r="BL13" t="inlineStr"/>
       <c r="BM13" t="inlineStr"/>
       <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>% value of modularization compared to the total construction value</t>
+        </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>Value of Modularized Construction Cost</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3014,7 +3327,7 @@
         </is>
       </c>
       <c r="BB14" t="n">
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
@@ -3029,7 +3342,7 @@
         </is>
       </c>
       <c r="BG14" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
@@ -3044,6 +3357,19 @@
       <c r="BL14" t="inlineStr"/>
       <c r="BM14" t="inlineStr"/>
       <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>Value of Total Construction Cost</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3094,7 +3420,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>30</v>
+        <v>5200000</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -3143,7 +3469,7 @@
         </is>
       </c>
       <c r="BG15" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
@@ -3158,6 +3484,33 @@
       <c r="BL15" t="inlineStr"/>
       <c r="BM15" t="inlineStr"/>
       <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Have all projects completed a Constructability Report/Document? </t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>Date and Revision of Constructability Report</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3252,7 +3605,7 @@
         </is>
       </c>
       <c r="BB16" t="n">
-        <v>1.4</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
@@ -3267,7 +3620,7 @@
         </is>
       </c>
       <c r="BG16" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="BH16" t="inlineStr"/>
       <c r="BI16" t="inlineStr"/>
@@ -3276,6 +3629,33 @@
       <c r="BL16" t="inlineStr"/>
       <c r="BM16" t="inlineStr"/>
       <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>Was design for Enabling Work Package considerd as part of the design process to ensure the readiness of the site for the main construction work?</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>Assessment of enabling works required</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3344,7 +3724,9 @@
           <t>Average time to complete shop drawing reviews</t>
         </is>
       </c>
-      <c r="AG17" t="inlineStr"/>
+      <c r="AG17" t="n">
+        <v>480</v>
+      </c>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
@@ -3375,7 +3757,7 @@
         </is>
       </c>
       <c r="BG17" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="BH17" t="inlineStr"/>
       <c r="BI17" t="inlineStr"/>
@@ -3384,6 +3766,33 @@
       <c r="BL17" t="inlineStr"/>
       <c r="BM17" t="inlineStr"/>
       <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>Are documentation packages meeting the LOD requirements of the latest Design Stage Gate?</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>LOD Required</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3444,9 +3853,7 @@
           <t>Number of shop drawing review conducted</t>
         </is>
       </c>
-      <c r="AG18" t="n">
-        <v>480</v>
-      </c>
+      <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
@@ -3516,6 +3923,21 @@
       </c>
       <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>LOD Documented (drawing sample from Design Report)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3612,6 +4034,33 @@
       <c r="BL19" t="inlineStr"/>
       <c r="BM19" t="inlineStr"/>
       <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>Have all projects adopted digital delivery using BIM and/or GIS?</t>
+        </is>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>% of projects adopting digital delivery using BIM/GIS</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3690,7 +4139,7 @@
         </is>
       </c>
       <c r="BB20" t="n">
-        <v>0.9916666666666667</v>
+        <v>0.9464769647696477</v>
       </c>
       <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="inlineStr"/>
@@ -3705,7 +4154,7 @@
         </is>
       </c>
       <c r="BG20" t="n">
-        <v>480</v>
+        <v>14760</v>
       </c>
       <c r="BH20" t="inlineStr"/>
       <c r="BI20" t="inlineStr"/>
@@ -3714,6 +4163,35 @@
       <c r="BL20" t="inlineStr"/>
       <c r="BM20" t="inlineStr"/>
       <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>Is project delivery occurring in accordance with the latest approved design strategy?</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date of Latest Approved Design Strategy </t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3787,7 +4265,7 @@
         </is>
       </c>
       <c r="BG21" t="n">
-        <v>476</v>
+        <v>13970</v>
       </c>
       <c r="BH21" t="inlineStr"/>
       <c r="BI21" t="inlineStr"/>
@@ -3796,6 +4274,29 @@
       <c r="BL21" t="inlineStr"/>
       <c r="BM21" t="inlineStr"/>
       <c r="BN21" t="inlineStr"/>
+      <c r="BO21" t="inlineStr"/>
+      <c r="BP21" t="inlineStr"/>
+      <c r="BQ21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">% of projects with completed technical design/peer reviews and verifications/certifications as required for the latest Design Stage Gate </t>
+        </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>Number of projects with completed design reviews and verification register</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3878,7 +4379,7 @@
         </is>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>0.986</v>
       </c>
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
@@ -3893,7 +4394,7 @@
         </is>
       </c>
       <c r="BG22" t="n">
-        <v>0.3</v>
+        <v>1000</v>
       </c>
       <c r="BH22" t="inlineStr"/>
       <c r="BI22" t="inlineStr"/>
@@ -3914,6 +4415,29 @@
       </c>
       <c r="BM22" t="inlineStr"/>
       <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>% of Corrective Actions closed</t>
+        </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>40</v>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>Total Corrective Actions</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3999,7 +4523,7 @@
         </is>
       </c>
       <c r="BG23" t="n">
-        <v>0.6</v>
+        <v>986</v>
       </c>
       <c r="BH23" t="inlineStr"/>
       <c r="BI23" t="inlineStr"/>
@@ -4008,6 +4532,19 @@
       <c r="BL23" t="inlineStr"/>
       <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr"/>
+      <c r="BO23" t="inlineStr"/>
+      <c r="BP23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="n">
+        <v>34</v>
+      </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>Number of Closed Corrective Actions</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4126,6 +4663,29 @@
       <c r="BN24" t="inlineStr">
         <is>
           <t>Pilot and R&amp;D Transition Rate</t>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr"/>
+      <c r="BP24" t="inlineStr"/>
+      <c r="BQ24" t="n">
+        <v>14</v>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>Average Cycle time to close corrective actions</t>
+        </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>14</v>
+      </c>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>Days taken to Close Corrective Actions</t>
         </is>
       </c>
     </row>
@@ -4210,6 +4770,33 @@
       <c r="BL25" t="inlineStr"/>
       <c r="BM25" t="inlineStr"/>
       <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>Is the average cycle time to complete reviews and certifications in accordance with the Design Management Report?</t>
+        </is>
+      </c>
+      <c r="BT25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>Days taken to complete Design Reviews</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4302,6 +4889,33 @@
       <c r="BL26" t="inlineStr"/>
       <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="inlineStr"/>
+      <c r="BO26" t="inlineStr"/>
+      <c r="BP26" t="inlineStr"/>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>Has the DevCo engaged independent certification of major critical elements?</t>
+        </is>
+      </c>
+      <c r="BT26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU26" t="inlineStr">
+        <is>
+          <t>Level of review and verification required for Stage Gate</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4386,6 +5000,35 @@
       <c r="BL27" t="inlineStr"/>
       <c r="BM27" t="inlineStr"/>
       <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>Are all project designs integrated with Regional Infrastructure &amp; Mobility Plans?</t>
+        </is>
+      </c>
+      <c r="BT27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BU27" t="inlineStr">
+        <is>
+          <t>Regional Strategies</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4467,7 +5110,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>Total number of MIRs approved</t>
+          <t>Total number of MIRs approved / rejected</t>
         </is>
       </c>
       <c r="BG28" t="n">
@@ -4490,6 +5133,33 @@
       </c>
       <c r="BM28" t="inlineStr"/>
       <c r="BN28" t="inlineStr"/>
+      <c r="BO28" t="inlineStr"/>
+      <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>Do all projects comply with environmental guidelines in accordance with ESIA?</t>
+        </is>
+      </c>
+      <c r="BT28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU28" t="inlineStr">
+        <is>
+          <t>Extent of compliance to environmental guidelines</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4532,11 +5202,7 @@
           <t xml:space="preserve">Leadership engagement </t>
         </is>
       </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>Satisfactory</t>
-        </is>
-      </c>
+      <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
@@ -4586,6 +5252,31 @@
       <c r="BL29" t="inlineStr"/>
       <c r="BM29" t="inlineStr"/>
       <c r="BN29" t="inlineStr"/>
+      <c r="BO29" t="inlineStr"/>
+      <c r="BP29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>% of projects with Code Compliance Violations</t>
+        </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BU29" t="inlineStr">
+        <is>
+          <t>Total Number of Code Compliance Violations</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4625,11 +5316,13 @@
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>Total number of ITPs requested</t>
-        </is>
-      </c>
-      <c r="AG30" t="n">
-        <v>100</v>
+          <t xml:space="preserve">Leadership engagement </t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
       </c>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
@@ -4670,6 +5363,29 @@
       <c r="BL30" t="inlineStr"/>
       <c r="BM30" t="inlineStr"/>
       <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="n">
+        <v>1.047619047619048</v>
+      </c>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>% of approved deviation waivers against compliant codes &amp; standards</t>
+        </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>21</v>
+      </c>
+      <c r="BU30" t="inlineStr">
+        <is>
+          <t>Total Waiver Applications Submitted</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4709,11 +5425,11 @@
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>Total number of ITPs attended</t>
+          <t>Total number of ITPs requested</t>
         </is>
       </c>
       <c r="AG31" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
@@ -4751,7 +5467,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>Total number of WIRs approved</t>
+          <t>Total number of WIRs approved / rejected</t>
         </is>
       </c>
       <c r="BG31" t="n">
@@ -4764,6 +5480,19 @@
       <c r="BL31" t="inlineStr"/>
       <c r="BM31" t="inlineStr"/>
       <c r="BN31" t="inlineStr"/>
+      <c r="BO31" t="inlineStr"/>
+      <c r="BP31" t="inlineStr"/>
+      <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
+      <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="n">
+        <v>22</v>
+      </c>
+      <c r="BU31" t="inlineStr">
+        <is>
+          <t>Total Waivers Approved</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4803,11 +5532,11 @@
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>Total number of ITPs approved</t>
+          <t>Total number of ITPs attended</t>
         </is>
       </c>
       <c r="AG32" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
@@ -4882,6 +5611,33 @@
       <c r="BN32" t="inlineStr">
         <is>
           <t>Organization Maturity Towards Innovation Adoption</t>
+        </is>
+      </c>
+      <c r="BO32" t="inlineStr"/>
+      <c r="BP32" t="inlineStr"/>
+      <c r="BQ32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS32" t="inlineStr">
+        <is>
+          <t>Have all required Stakeholder Submittals been issued?</t>
+        </is>
+      </c>
+      <c r="BT32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU32" t="inlineStr">
+        <is>
+          <t>Stakeholder Submittal Date</t>
         </is>
       </c>
     </row>
@@ -4923,11 +5679,11 @@
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>Total number of ITPs completed</t>
+          <t>Total number of ITPs approved</t>
         </is>
       </c>
       <c r="AG33" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
@@ -4978,6 +5734,29 @@
       <c r="BL33" t="inlineStr"/>
       <c r="BM33" t="inlineStr"/>
       <c r="BN33" t="inlineStr"/>
+      <c r="BO33" t="inlineStr"/>
+      <c r="BP33" t="inlineStr"/>
+      <c r="BQ33" t="n">
+        <v>0.3174603174603175</v>
+      </c>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS33" t="inlineStr">
+        <is>
+          <t>% of time critical Stakeholder Approvals Pending impacting Design Stage Gate completion</t>
+        </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BU33" t="inlineStr">
+        <is>
+          <t>Number of Stakeholder Approvals Pending</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5017,10 +5796,12 @@
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>Total number Quality Reports required</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr"/>
+          <t>Total number of ITPs completed</t>
+        </is>
+      </c>
+      <c r="AG34" t="n">
+        <v>85</v>
+      </c>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
@@ -5060,6 +5841,19 @@
       <c r="BL34" t="inlineStr"/>
       <c r="BM34" t="inlineStr"/>
       <c r="BN34" t="inlineStr"/>
+      <c r="BO34" t="inlineStr"/>
+      <c r="BP34" t="inlineStr"/>
+      <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
+      <c r="BS34" t="inlineStr"/>
+      <c r="BT34" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="BU34" t="inlineStr">
+        <is>
+          <t>Total number of stakeholder approvals required</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5127,10 +5921,8 @@
           <t>Average NCRs closeout Cycle Time</t>
         </is>
       </c>
-      <c r="BB35" t="inlineStr">
-        <is>
-          <t>5 Weeks</t>
-        </is>
+      <c r="BB35" t="n">
+        <v>23</v>
       </c>
       <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="inlineStr"/>
@@ -5144,10 +5936,8 @@
           <t>Average time to close NCRs</t>
         </is>
       </c>
-      <c r="BG35" t="inlineStr">
-        <is>
-          <t>5 Weeks</t>
-        </is>
+      <c r="BG35" t="n">
+        <v>23</v>
       </c>
       <c r="BH35" t="inlineStr"/>
       <c r="BI35" t="inlineStr"/>
@@ -5156,6 +5946,33 @@
       <c r="BL35" t="inlineStr"/>
       <c r="BM35" t="inlineStr"/>
       <c r="BN35" t="inlineStr"/>
+      <c r="BO35" t="inlineStr"/>
+      <c r="BP35" t="inlineStr"/>
+      <c r="BQ35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS35" t="inlineStr">
+        <is>
+          <t>Does the Stakeholder Engagement Plan include proactive communication process to ensure timley coordination and approvals?</t>
+        </is>
+      </c>
+      <c r="BT35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU35" t="inlineStr">
+        <is>
+          <t>Scheduled Design Stage Gate Completion</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5228,7 +6045,7 @@
         </is>
       </c>
       <c r="BB36" t="n">
-        <v>2</v>
+        <v>0.86</v>
       </c>
       <c r="BC36" t="inlineStr">
         <is>
@@ -5249,7 +6066,7 @@
         </is>
       </c>
       <c r="BG36" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="BH36" t="inlineStr"/>
       <c r="BI36" t="inlineStr"/>
@@ -5268,6 +6085,29 @@
       </c>
       <c r="BM36" t="inlineStr"/>
       <c r="BN36" t="inlineStr"/>
+      <c r="BO36" t="inlineStr"/>
+      <c r="BP36" t="inlineStr"/>
+      <c r="BQ36" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS36" t="inlineStr">
+        <is>
+          <t>% of Stakeholder Comments Closed</t>
+        </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>21</v>
+      </c>
+      <c r="BU36" t="inlineStr">
+        <is>
+          <t>Total Stakeholder Comments</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5341,7 +6181,7 @@
         </is>
       </c>
       <c r="BG37" t="n">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="BH37" t="inlineStr"/>
       <c r="BI37" t="inlineStr"/>
@@ -5350,6 +6190,19 @@
       <c r="BL37" t="inlineStr"/>
       <c r="BM37" t="inlineStr"/>
       <c r="BN37" t="inlineStr"/>
+      <c r="BO37" t="inlineStr"/>
+      <c r="BP37" t="inlineStr"/>
+      <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
+      <c r="BS37" t="inlineStr"/>
+      <c r="BT37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU37" t="inlineStr">
+        <is>
+          <t>Stakeholder Comments Closed</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5442,6 +6295,31 @@
       <c r="BL38" t="inlineStr"/>
       <c r="BM38" t="inlineStr"/>
       <c r="BN38" t="inlineStr"/>
+      <c r="BO38" t="inlineStr"/>
+      <c r="BP38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS38" t="inlineStr">
+        <is>
+          <t>% of projects achieving DevCo ESG Targets</t>
+        </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU38" t="inlineStr">
+        <is>
+          <t>Planned ESG Target</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5524,6 +6402,19 @@
       <c r="BL39" t="inlineStr"/>
       <c r="BM39" t="inlineStr"/>
       <c r="BN39" t="inlineStr"/>
+      <c r="BO39" t="inlineStr"/>
+      <c r="BP39" t="inlineStr"/>
+      <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
+      <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="inlineStr">
+        <is>
+          <t>Actual ESG Target</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5616,6 +6507,35 @@
       <c r="BL40" t="inlineStr"/>
       <c r="BM40" t="inlineStr"/>
       <c r="BN40" t="inlineStr"/>
+      <c r="BO40" t="inlineStr"/>
+      <c r="BP40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS40" t="inlineStr">
+        <is>
+          <t>Does the DevCo ESG Target align with globally recognized Best Practice Targets?</t>
+        </is>
+      </c>
+      <c r="BT40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BU40" t="inlineStr">
+        <is>
+          <t>Alignment with globally recognized Best Practice Targets</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5698,6 +6618,13 @@
       <c r="BL41" t="inlineStr"/>
       <c r="BM41" t="inlineStr"/>
       <c r="BN41" t="inlineStr"/>
+      <c r="BO41" t="inlineStr"/>
+      <c r="BP41" t="inlineStr"/>
+      <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
+      <c r="BS41" t="inlineStr"/>
+      <c r="BT41" t="inlineStr"/>
+      <c r="BU41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5790,6 +6717,13 @@
       <c r="BL42" t="inlineStr"/>
       <c r="BM42" t="inlineStr"/>
       <c r="BN42" t="inlineStr"/>
+      <c r="BO42" t="inlineStr"/>
+      <c r="BP42" t="inlineStr"/>
+      <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
+      <c r="BS42" t="inlineStr"/>
+      <c r="BT42" t="inlineStr"/>
+      <c r="BU42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5872,6 +6806,13 @@
       <c r="BL43" t="inlineStr"/>
       <c r="BM43" t="inlineStr"/>
       <c r="BN43" t="inlineStr"/>
+      <c r="BO43" t="inlineStr"/>
+      <c r="BP43" t="inlineStr"/>
+      <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
+      <c r="BS43" t="inlineStr"/>
+      <c r="BT43" t="inlineStr"/>
+      <c r="BU43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5968,6 +6909,13 @@
       <c r="BL44" t="inlineStr"/>
       <c r="BM44" t="inlineStr"/>
       <c r="BN44" t="inlineStr"/>
+      <c r="BO44" t="inlineStr"/>
+      <c r="BP44" t="inlineStr"/>
+      <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
+      <c r="BS44" t="inlineStr"/>
+      <c r="BT44" t="inlineStr"/>
+      <c r="BU44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6036,14 +6984,16 @@
         </is>
       </c>
       <c r="BB45" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="BC45" t="inlineStr">
         <is>
           <t>Procurement &amp; Contracting Execution Performance</t>
         </is>
       </c>
-      <c r="BD45" t="inlineStr"/>
+      <c r="BD45" t="n">
+        <v>1.8</v>
+      </c>
       <c r="BE45" t="inlineStr">
         <is>
           <t>% of procurement activities executed as planned in the Annual Procurement Plan</t>
@@ -6055,7 +7005,7 @@
         </is>
       </c>
       <c r="BG45" t="n">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="BH45" t="inlineStr"/>
       <c r="BI45" t="inlineStr"/>
@@ -6064,6 +7014,13 @@
       <c r="BL45" t="inlineStr"/>
       <c r="BM45" t="inlineStr"/>
       <c r="BN45" t="inlineStr"/>
+      <c r="BO45" t="inlineStr"/>
+      <c r="BP45" t="inlineStr"/>
+      <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
+      <c r="BS45" t="inlineStr"/>
+      <c r="BT45" t="inlineStr"/>
+      <c r="BU45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6137,7 +7094,7 @@
         </is>
       </c>
       <c r="BG46" t="n">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="BH46" t="inlineStr"/>
       <c r="BI46" t="inlineStr"/>
@@ -6146,6 +7103,13 @@
       <c r="BL46" t="inlineStr"/>
       <c r="BM46" t="inlineStr"/>
       <c r="BN46" t="inlineStr"/>
+      <c r="BO46" t="inlineStr"/>
+      <c r="BP46" t="inlineStr"/>
+      <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
+      <c r="BS46" t="inlineStr"/>
+      <c r="BT46" t="inlineStr"/>
+      <c r="BU46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6214,7 +7178,7 @@
         </is>
       </c>
       <c r="BB47" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.09116647791619475</v>
       </c>
       <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="inlineStr"/>
@@ -6229,7 +7193,7 @@
         </is>
       </c>
       <c r="BG47" t="n">
-        <v>0.1</v>
+        <v>35.32</v>
       </c>
       <c r="BH47" t="inlineStr"/>
       <c r="BI47" t="inlineStr"/>
@@ -6238,6 +7202,13 @@
       <c r="BL47" t="inlineStr"/>
       <c r="BM47" t="inlineStr"/>
       <c r="BN47" t="inlineStr"/>
+      <c r="BO47" t="inlineStr"/>
+      <c r="BP47" t="inlineStr"/>
+      <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
+      <c r="BS47" t="inlineStr"/>
+      <c r="BT47" t="inlineStr"/>
+      <c r="BU47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6311,7 +7282,7 @@
         </is>
       </c>
       <c r="BG48" t="n">
-        <v>0.06</v>
+        <v>32.1</v>
       </c>
       <c r="BH48" t="inlineStr"/>
       <c r="BI48" t="inlineStr"/>
@@ -6320,6 +7291,13 @@
       <c r="BL48" t="inlineStr"/>
       <c r="BM48" t="inlineStr"/>
       <c r="BN48" t="inlineStr"/>
+      <c r="BO48" t="inlineStr"/>
+      <c r="BP48" t="inlineStr"/>
+      <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
+      <c r="BS48" t="inlineStr"/>
+      <c r="BT48" t="inlineStr"/>
+      <c r="BU48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6388,7 +7366,7 @@
         </is>
       </c>
       <c r="BB49" t="n">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="BC49" t="inlineStr"/>
       <c r="BD49" t="inlineStr"/>
@@ -6403,7 +7381,7 @@
         </is>
       </c>
       <c r="BG49" t="n">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="BH49" t="inlineStr"/>
       <c r="BI49" t="inlineStr"/>
@@ -6412,6 +7390,13 @@
       <c r="BL49" t="inlineStr"/>
       <c r="BM49" t="inlineStr"/>
       <c r="BN49" t="inlineStr"/>
+      <c r="BO49" t="inlineStr"/>
+      <c r="BP49" t="inlineStr"/>
+      <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
+      <c r="BS49" t="inlineStr"/>
+      <c r="BT49" t="inlineStr"/>
+      <c r="BU49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6483,8 +7468,10 @@
           <t>Are Payment Certificates and payments being processed in accordance with the Contract terms and conditions?</t>
         </is>
       </c>
-      <c r="BB50" t="n">
-        <v>80</v>
+      <c r="BB50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="BC50" t="inlineStr"/>
       <c r="BD50" t="inlineStr"/>
@@ -6498,8 +7485,10 @@
           <t>Processing of payment certificates and payments</t>
         </is>
       </c>
-      <c r="BG50" t="n">
-        <v>80</v>
+      <c r="BG50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="BH50" t="inlineStr"/>
       <c r="BI50" t="inlineStr"/>
@@ -6508,6 +7497,13 @@
       <c r="BL50" t="inlineStr"/>
       <c r="BM50" t="inlineStr"/>
       <c r="BN50" t="inlineStr"/>
+      <c r="BO50" t="inlineStr"/>
+      <c r="BP50" t="inlineStr"/>
+      <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
+      <c r="BS50" t="inlineStr"/>
+      <c r="BT50" t="inlineStr"/>
+      <c r="BU50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6608,6 +7604,13 @@
       <c r="BL51" t="inlineStr"/>
       <c r="BM51" t="inlineStr"/>
       <c r="BN51" t="inlineStr"/>
+      <c r="BO51" t="inlineStr"/>
+      <c r="BP51" t="inlineStr"/>
+      <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
+      <c r="BS51" t="inlineStr"/>
+      <c r="BT51" t="inlineStr"/>
+      <c r="BU51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6690,7 +7693,7 @@
         </is>
       </c>
       <c r="BD52" t="n">
-        <v>1.87</v>
+        <v>2.47</v>
       </c>
       <c r="BE52" t="inlineStr">
         <is>
@@ -6714,6 +7717,13 @@
       <c r="BL52" t="inlineStr"/>
       <c r="BM52" t="inlineStr"/>
       <c r="BN52" t="inlineStr"/>
+      <c r="BO52" t="inlineStr"/>
+      <c r="BP52" t="inlineStr"/>
+      <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
+      <c r="BS52" t="inlineStr"/>
+      <c r="BT52" t="inlineStr"/>
+      <c r="BU52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6810,6 +7820,13 @@
       <c r="BL53" t="inlineStr"/>
       <c r="BM53" t="inlineStr"/>
       <c r="BN53" t="inlineStr"/>
+      <c r="BO53" t="inlineStr"/>
+      <c r="BP53" t="inlineStr"/>
+      <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
+      <c r="BS53" t="inlineStr"/>
+      <c r="BT53" t="inlineStr"/>
+      <c r="BU53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6902,6 +7919,13 @@
       <c r="BL54" t="inlineStr"/>
       <c r="BM54" t="inlineStr"/>
       <c r="BN54" t="inlineStr"/>
+      <c r="BO54" t="inlineStr"/>
+      <c r="BP54" t="inlineStr"/>
+      <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
+      <c r="BS54" t="inlineStr"/>
+      <c r="BT54" t="inlineStr"/>
+      <c r="BU54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6984,6 +8008,13 @@
       <c r="BL55" t="inlineStr"/>
       <c r="BM55" t="inlineStr"/>
       <c r="BN55" t="inlineStr"/>
+      <c r="BO55" t="inlineStr"/>
+      <c r="BP55" t="inlineStr"/>
+      <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
+      <c r="BS55" t="inlineStr"/>
+      <c r="BT55" t="inlineStr"/>
+      <c r="BU55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7080,6 +8111,13 @@
       <c r="BL56" t="inlineStr"/>
       <c r="BM56" t="inlineStr"/>
       <c r="BN56" t="inlineStr"/>
+      <c r="BO56" t="inlineStr"/>
+      <c r="BP56" t="inlineStr"/>
+      <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
+      <c r="BS56" t="inlineStr"/>
+      <c r="BT56" t="inlineStr"/>
+      <c r="BU56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7176,6 +8214,13 @@
       <c r="BL57" t="inlineStr"/>
       <c r="BM57" t="inlineStr"/>
       <c r="BN57" t="inlineStr"/>
+      <c r="BO57" t="inlineStr"/>
+      <c r="BP57" t="inlineStr"/>
+      <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
+      <c r="BS57" t="inlineStr"/>
+      <c r="BT57" t="inlineStr"/>
+      <c r="BU57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7262,6 +8307,13 @@
       <c r="BL58" t="inlineStr"/>
       <c r="BM58" t="inlineStr"/>
       <c r="BN58" t="inlineStr"/>
+      <c r="BO58" t="inlineStr"/>
+      <c r="BP58" t="inlineStr"/>
+      <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
+      <c r="BS58" t="inlineStr"/>
+      <c r="BT58" t="inlineStr"/>
+      <c r="BU58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7301,10 +8353,12 @@
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>Total packages</t>
-        </is>
-      </c>
-      <c r="AG59" t="inlineStr"/>
+          <t>% payment paid within contractual terms</t>
+        </is>
+      </c>
+      <c r="AG59" t="n">
+        <v>80</v>
+      </c>
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr"/>
@@ -7356,6 +8410,13 @@
       <c r="BL59" t="inlineStr"/>
       <c r="BM59" t="inlineStr"/>
       <c r="BN59" t="inlineStr"/>
+      <c r="BO59" t="inlineStr"/>
+      <c r="BP59" t="inlineStr"/>
+      <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
+      <c r="BS59" t="inlineStr"/>
+      <c r="BT59" t="inlineStr"/>
+      <c r="BU59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7438,6 +8499,13 @@
       <c r="BL60" t="inlineStr"/>
       <c r="BM60" t="inlineStr"/>
       <c r="BN60" t="inlineStr"/>
+      <c r="BO60" t="inlineStr"/>
+      <c r="BP60" t="inlineStr"/>
+      <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
+      <c r="BS60" t="inlineStr"/>
+      <c r="BT60" t="inlineStr"/>
+      <c r="BU60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7522,6 +8590,13 @@
       <c r="BL61" t="inlineStr"/>
       <c r="BM61" t="inlineStr"/>
       <c r="BN61" t="inlineStr"/>
+      <c r="BO61" t="inlineStr"/>
+      <c r="BP61" t="inlineStr"/>
+      <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
+      <c r="BS61" t="inlineStr"/>
+      <c r="BT61" t="inlineStr"/>
+      <c r="BU61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7606,6 +8681,13 @@
       <c r="BL62" t="inlineStr"/>
       <c r="BM62" t="inlineStr"/>
       <c r="BN62" t="inlineStr"/>
+      <c r="BO62" t="inlineStr"/>
+      <c r="BP62" t="inlineStr"/>
+      <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
+      <c r="BS62" t="inlineStr"/>
+      <c r="BT62" t="inlineStr"/>
+      <c r="BU62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7674,7 +8756,7 @@
         </is>
       </c>
       <c r="BB63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC63" t="inlineStr"/>
       <c r="BD63" t="inlineStr"/>
@@ -7689,7 +8771,7 @@
         </is>
       </c>
       <c r="BG63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH63" t="inlineStr"/>
       <c r="BI63" t="inlineStr"/>
@@ -7698,6 +8780,13 @@
       <c r="BL63" t="inlineStr"/>
       <c r="BM63" t="inlineStr"/>
       <c r="BN63" t="inlineStr"/>
+      <c r="BO63" t="inlineStr"/>
+      <c r="BP63" t="inlineStr"/>
+      <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
+      <c r="BS63" t="inlineStr"/>
+      <c r="BT63" t="inlineStr"/>
+      <c r="BU63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7766,7 +8855,7 @@
         </is>
       </c>
       <c r="BB64" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BC64" t="inlineStr"/>
       <c r="BD64" t="inlineStr"/>
@@ -7781,7 +8870,7 @@
         </is>
       </c>
       <c r="BG64" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BH64" t="inlineStr"/>
       <c r="BI64" t="inlineStr"/>
@@ -7790,6 +8879,13 @@
       <c r="BL64" t="inlineStr"/>
       <c r="BM64" t="inlineStr"/>
       <c r="BN64" t="inlineStr"/>
+      <c r="BO64" t="inlineStr"/>
+      <c r="BP64" t="inlineStr"/>
+      <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
+      <c r="BS64" t="inlineStr"/>
+      <c r="BT64" t="inlineStr"/>
+      <c r="BU64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7858,7 +8954,7 @@
         </is>
       </c>
       <c r="BB65" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BC65" t="inlineStr"/>
       <c r="BD65" t="inlineStr"/>
@@ -7873,7 +8969,7 @@
         </is>
       </c>
       <c r="BG65" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BH65" t="inlineStr"/>
       <c r="BI65" t="inlineStr"/>
@@ -7882,6 +8978,13 @@
       <c r="BL65" t="inlineStr"/>
       <c r="BM65" t="inlineStr"/>
       <c r="BN65" t="inlineStr"/>
+      <c r="BO65" t="inlineStr"/>
+      <c r="BP65" t="inlineStr"/>
+      <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
+      <c r="BS65" t="inlineStr"/>
+      <c r="BT65" t="inlineStr"/>
+      <c r="BU65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7952,7 +9055,7 @@
         </is>
       </c>
       <c r="BB66" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="BC66" t="inlineStr"/>
       <c r="BD66" t="inlineStr"/>
@@ -7967,7 +9070,7 @@
         </is>
       </c>
       <c r="BG66" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="BH66" t="inlineStr"/>
       <c r="BI66" t="inlineStr"/>
@@ -7976,6 +9079,13 @@
       <c r="BL66" t="inlineStr"/>
       <c r="BM66" t="inlineStr"/>
       <c r="BN66" t="inlineStr"/>
+      <c r="BO66" t="inlineStr"/>
+      <c r="BP66" t="inlineStr"/>
+      <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
+      <c r="BS66" t="inlineStr"/>
+      <c r="BT66" t="inlineStr"/>
+      <c r="BU66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8046,7 +9156,7 @@
         </is>
       </c>
       <c r="BB67" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="BC67" t="inlineStr"/>
       <c r="BD67" t="inlineStr"/>
@@ -8061,7 +9171,7 @@
         </is>
       </c>
       <c r="BG67" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="BH67" t="inlineStr"/>
       <c r="BI67" t="inlineStr"/>
@@ -8070,6 +9180,13 @@
       <c r="BL67" t="inlineStr"/>
       <c r="BM67" t="inlineStr"/>
       <c r="BN67" t="inlineStr"/>
+      <c r="BO67" t="inlineStr"/>
+      <c r="BP67" t="inlineStr"/>
+      <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
+      <c r="BS67" t="inlineStr"/>
+      <c r="BT67" t="inlineStr"/>
+      <c r="BU67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8112,9 +9229,7 @@
           <t xml:space="preserve">Total Safe Manhours </t>
         </is>
       </c>
-      <c r="AG68" t="n">
-        <v>2</v>
-      </c>
+      <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr"/>
       <c r="AI68" t="inlineStr"/>
       <c r="AJ68" t="inlineStr"/>
@@ -8140,7 +9255,7 @@
         </is>
       </c>
       <c r="BB68" t="n">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="BC68" t="inlineStr"/>
       <c r="BD68" t="inlineStr"/>
@@ -8155,7 +9270,7 @@
         </is>
       </c>
       <c r="BG68" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="BH68" t="inlineStr"/>
       <c r="BI68" t="inlineStr"/>
@@ -8164,6 +9279,13 @@
       <c r="BL68" t="inlineStr"/>
       <c r="BM68" t="inlineStr"/>
       <c r="BN68" t="inlineStr"/>
+      <c r="BO68" t="inlineStr"/>
+      <c r="BP68" t="inlineStr"/>
+      <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
+      <c r="BS68" t="inlineStr"/>
+      <c r="BT68" t="inlineStr"/>
+      <c r="BU68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8206,9 +9328,7 @@
           <t xml:space="preserve">Total number of closed Corrective actions </t>
         </is>
       </c>
-      <c r="AG69" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="inlineStr"/>
       <c r="AI69" t="inlineStr"/>
       <c r="AJ69" t="inlineStr"/>
@@ -8239,7 +9359,7 @@
         </is>
       </c>
       <c r="BG69" t="n">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="BH69" t="inlineStr"/>
       <c r="BI69" t="inlineStr"/>
@@ -8248,6 +9368,13 @@
       <c r="BL69" t="inlineStr"/>
       <c r="BM69" t="inlineStr"/>
       <c r="BN69" t="inlineStr"/>
+      <c r="BO69" t="inlineStr"/>
+      <c r="BP69" t="inlineStr"/>
+      <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
+      <c r="BS69" t="inlineStr"/>
+      <c r="BT69" t="inlineStr"/>
+      <c r="BU69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8346,6 +9473,13 @@
       <c r="BL70" t="inlineStr"/>
       <c r="BM70" t="inlineStr"/>
       <c r="BN70" t="inlineStr"/>
+      <c r="BO70" t="inlineStr"/>
+      <c r="BP70" t="inlineStr"/>
+      <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
+      <c r="BS70" t="inlineStr"/>
+      <c r="BT70" t="inlineStr"/>
+      <c r="BU70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8428,6 +9562,13 @@
       <c r="BL71" t="inlineStr"/>
       <c r="BM71" t="inlineStr"/>
       <c r="BN71" t="inlineStr"/>
+      <c r="BO71" t="inlineStr"/>
+      <c r="BP71" t="inlineStr"/>
+      <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
+      <c r="BS71" t="inlineStr"/>
+      <c r="BT71" t="inlineStr"/>
+      <c r="BU71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8526,6 +9667,13 @@
       <c r="BL72" t="inlineStr"/>
       <c r="BM72" t="inlineStr"/>
       <c r="BN72" t="inlineStr"/>
+      <c r="BO72" t="inlineStr"/>
+      <c r="BP72" t="inlineStr"/>
+      <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
+      <c r="BS72" t="inlineStr"/>
+      <c r="BT72" t="inlineStr"/>
+      <c r="BU72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8622,6 +9770,13 @@
       <c r="BL73" t="inlineStr"/>
       <c r="BM73" t="inlineStr"/>
       <c r="BN73" t="inlineStr"/>
+      <c r="BO73" t="inlineStr"/>
+      <c r="BP73" t="inlineStr"/>
+      <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
+      <c r="BS73" t="inlineStr"/>
+      <c r="BT73" t="inlineStr"/>
+      <c r="BU73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8714,6 +9869,13 @@
       <c r="BL74" t="inlineStr"/>
       <c r="BM74" t="inlineStr"/>
       <c r="BN74" t="inlineStr"/>
+      <c r="BO74" t="inlineStr"/>
+      <c r="BP74" t="inlineStr"/>
+      <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
+      <c r="BS74" t="inlineStr"/>
+      <c r="BT74" t="inlineStr"/>
+      <c r="BU74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8796,6 +9958,13 @@
       <c r="BL75" t="inlineStr"/>
       <c r="BM75" t="inlineStr"/>
       <c r="BN75" t="inlineStr"/>
+      <c r="BO75" t="inlineStr"/>
+      <c r="BP75" t="inlineStr"/>
+      <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
+      <c r="BS75" t="inlineStr"/>
+      <c r="BT75" t="inlineStr"/>
+      <c r="BU75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8888,6 +10057,13 @@
       <c r="BL76" t="inlineStr"/>
       <c r="BM76" t="inlineStr"/>
       <c r="BN76" t="inlineStr"/>
+      <c r="BO76" t="inlineStr"/>
+      <c r="BP76" t="inlineStr"/>
+      <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
+      <c r="BS76" t="inlineStr"/>
+      <c r="BT76" t="inlineStr"/>
+      <c r="BU76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8966,6 +10142,13 @@
       <c r="BL77" t="inlineStr"/>
       <c r="BM77" t="inlineStr"/>
       <c r="BN77" t="inlineStr"/>
+      <c r="BO77" t="inlineStr"/>
+      <c r="BP77" t="inlineStr"/>
+      <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
+      <c r="BS77" t="inlineStr"/>
+      <c r="BT77" t="inlineStr"/>
+      <c r="BU77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9058,6 +10241,13 @@
       <c r="BL78" t="inlineStr"/>
       <c r="BM78" t="inlineStr"/>
       <c r="BN78" t="inlineStr"/>
+      <c r="BO78" t="inlineStr"/>
+      <c r="BP78" t="inlineStr"/>
+      <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
+      <c r="BS78" t="inlineStr"/>
+      <c r="BT78" t="inlineStr"/>
+      <c r="BU78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9150,11 +10340,18 @@
       <c r="BL79" t="inlineStr"/>
       <c r="BM79" t="inlineStr"/>
       <c r="BN79" t="inlineStr"/>
+      <c r="BO79" t="inlineStr"/>
+      <c r="BP79" t="inlineStr"/>
+      <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
+      <c r="BS79" t="inlineStr"/>
+      <c r="BT79" t="inlineStr"/>
+      <c r="BU79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -9398,11 +10595,40 @@
           <t>Innovation &amp; Technology Deployment</t>
         </is>
       </c>
+      <c r="BO80" t="inlineStr">
+        <is>
+          <t>DevCo has maintained adherence to the Vision, with a few outstanding variance approvals pending. The DevCo has demonstrated poor consideration for construction methodology simplification during the design phase, however, is demonstrating effective use of BIM software for interdisciplinary coordination across most projects.</t>
+        </is>
+      </c>
+      <c r="BP80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BQ80" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS80" t="inlineStr">
+        <is>
+          <t>Similarity between Original/Approved and Latest CGI and Animation</t>
+        </is>
+      </c>
+      <c r="BT80" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BU80" t="inlineStr">
+        <is>
+          <t>Percentage similarity between Approved CGI and Latest CGI at same angle and scale</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -9596,11 +10822,24 @@
       <c r="BL81" t="inlineStr"/>
       <c r="BM81" t="inlineStr"/>
       <c r="BN81" t="inlineStr"/>
+      <c r="BO81" t="inlineStr"/>
+      <c r="BP81" t="inlineStr"/>
+      <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
+      <c r="BS81" t="inlineStr"/>
+      <c r="BT81" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BU81" t="inlineStr">
+        <is>
+          <t>Percentage similarity between Approved Animation and Latest Animation at same camera angle</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -9812,11 +11051,38 @@
       <c r="BL82" t="inlineStr"/>
       <c r="BM82" t="inlineStr"/>
       <c r="BN82" t="inlineStr"/>
+      <c r="BO82" t="inlineStr"/>
+      <c r="BP82" t="inlineStr"/>
+      <c r="BQ82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS82" t="inlineStr">
+        <is>
+          <t>Does the Latest Material Palette &amp; Finish Schedule support the look of the Approved CGI?</t>
+        </is>
+      </c>
+      <c r="BT82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU82" t="inlineStr">
+        <is>
+          <t>Material Palette &amp; Finish Schedule</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -10004,11 +11270,38 @@
       <c r="BL83" t="inlineStr"/>
       <c r="BM83" t="inlineStr"/>
       <c r="BN83" t="inlineStr"/>
+      <c r="BO83" t="inlineStr"/>
+      <c r="BP83" t="inlineStr"/>
+      <c r="BQ83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS83" t="inlineStr">
+        <is>
+          <t>Does the DevCo have Design &amp; Technical Guidelines (including Look &amp; Feel Design Guidelines)?</t>
+        </is>
+      </c>
+      <c r="BT83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU83" t="inlineStr">
+        <is>
+          <t>Design and Technical Guidelines</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -10214,11 +11507,38 @@
       <c r="BL84" t="inlineStr"/>
       <c r="BM84" t="inlineStr"/>
       <c r="BN84" t="inlineStr"/>
+      <c r="BO84" t="inlineStr"/>
+      <c r="BP84" t="inlineStr"/>
+      <c r="BQ84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS84" t="inlineStr">
+        <is>
+          <t>Do DevCo projects comply with DDTG?</t>
+        </is>
+      </c>
+      <c r="BT84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BU84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Look &amp; Feel Guideline </t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -10382,11 +11702,36 @@
       <c r="BL85" t="inlineStr"/>
       <c r="BM85" t="inlineStr"/>
       <c r="BN85" t="inlineStr"/>
+      <c r="BO85" t="inlineStr"/>
+      <c r="BP85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ85" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS85" t="inlineStr">
+        <is>
+          <t>% variance from approved Built-Up Area (BUA)</t>
+        </is>
+      </c>
+      <c r="BT85" t="n">
+        <v>16</v>
+      </c>
+      <c r="BU85" t="inlineStr">
+        <is>
+          <t>Latest BUA</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -10566,11 +11911,24 @@
       <c r="BL86" t="inlineStr"/>
       <c r="BM86" t="inlineStr"/>
       <c r="BN86" t="inlineStr"/>
+      <c r="BO86" t="inlineStr"/>
+      <c r="BP86" t="inlineStr"/>
+      <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
+      <c r="BS86" t="inlineStr"/>
+      <c r="BT86" t="n">
+        <v>14</v>
+      </c>
+      <c r="BU86" t="inlineStr">
+        <is>
+          <t>Approved BUA</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -10732,11 +12090,34 @@
       <c r="BL87" t="inlineStr"/>
       <c r="BM87" t="inlineStr"/>
       <c r="BN87" t="inlineStr"/>
+      <c r="BO87" t="inlineStr"/>
+      <c r="BP87" t="inlineStr"/>
+      <c r="BQ87" t="n">
+        <v>0.04166666666666671</v>
+      </c>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS87" t="inlineStr">
+        <is>
+          <t>% variance in land use permit area</t>
+        </is>
+      </c>
+      <c r="BT87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BU87" t="inlineStr">
+        <is>
+          <t>Latest Land Area</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -10908,11 +12289,24 @@
       </c>
       <c r="BM88" t="inlineStr"/>
       <c r="BN88" t="inlineStr"/>
+      <c r="BO88" t="inlineStr"/>
+      <c r="BP88" t="inlineStr"/>
+      <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
+      <c r="BS88" t="inlineStr"/>
+      <c r="BT88" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BU88" t="inlineStr">
+        <is>
+          <t>Approved Land Area</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -11064,11 +12458,34 @@
       <c r="BL89" t="inlineStr"/>
       <c r="BM89" t="inlineStr"/>
       <c r="BN89" t="inlineStr"/>
+      <c r="BO89" t="inlineStr"/>
+      <c r="BP89" t="inlineStr"/>
+      <c r="BQ89" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS89" t="inlineStr">
+        <is>
+          <t>% variance from approved population</t>
+        </is>
+      </c>
+      <c r="BT89" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BU89" t="inlineStr">
+        <is>
+          <t>Latest Population</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -11192,11 +12609,24 @@
       <c r="BL90" t="inlineStr"/>
       <c r="BM90" t="inlineStr"/>
       <c r="BN90" t="inlineStr"/>
+      <c r="BO90" t="inlineStr"/>
+      <c r="BP90" t="inlineStr"/>
+      <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
+      <c r="BS90" t="inlineStr"/>
+      <c r="BT90" t="n">
+        <v>950</v>
+      </c>
+      <c r="BU90" t="inlineStr">
+        <is>
+          <t>Approved Population</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -11314,11 +12744,36 @@
       <c r="BL91" t="inlineStr"/>
       <c r="BM91" t="inlineStr"/>
       <c r="BN91" t="inlineStr"/>
+      <c r="BO91" t="inlineStr"/>
+      <c r="BP91" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BQ91" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="BR91" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
+      <c r="BS91" t="inlineStr">
+        <is>
+          <t>% value of modularization compared to the total construction value</t>
+        </is>
+      </c>
+      <c r="BT91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BU91" t="inlineStr">
+        <is>
+          <t>Value of Modularized Construction Cost</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -11436,11 +12891,24 @@
       <c r="BL92" t="inlineStr"/>
       <c r="BM92" t="inlineStr"/>
       <c r="BN92" t="inlineStr"/>
+      <c r="BO92" t="inlineStr"/>
+      <c r="BP92" t="inlineStr"/>
+      <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
+      <c r="BS92" t="inlineStr"/>
+      <c r="BT92" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BU92" t="inlineStr">
+        <is>
+          <t>Value of Total Construction Cost</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -11550,11 +13018,38 @@
       <c r="BL93" t="inlineStr"/>
       <c r="BM93" t="inlineStr"/>
       <c r="BN93" t="inlineStr"/>
+      <c r="BO93" t="inlineStr"/>
+      <c r="BP93" t="inlineStr"/>
+      <c r="BQ93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Have all projects completed a Constructability Report/Document? </t>
+        </is>
+      </c>
+      <c r="BT93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU93" t="inlineStr">
+        <is>
+          <t>Date and Revision of Constructability Report</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -11668,11 +13163,38 @@
       <c r="BL94" t="inlineStr"/>
       <c r="BM94" t="inlineStr"/>
       <c r="BN94" t="inlineStr"/>
+      <c r="BO94" t="inlineStr"/>
+      <c r="BP94" t="inlineStr"/>
+      <c r="BQ94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR94" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS94" t="inlineStr">
+        <is>
+          <t>Was design for Enabling Work Package considerd as part of the design process to ensure the readiness of the site for the main construction work?</t>
+        </is>
+      </c>
+      <c r="BT94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU94" t="inlineStr">
+        <is>
+          <t>Assessment of enabling works required</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -11774,11 +13296,38 @@
       <c r="BL95" t="inlineStr"/>
       <c r="BM95" t="inlineStr"/>
       <c r="BN95" t="inlineStr"/>
+      <c r="BO95" t="inlineStr"/>
+      <c r="BP95" t="inlineStr"/>
+      <c r="BQ95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR95" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS95" t="inlineStr">
+        <is>
+          <t>Are documentation packages meeting the LOD requirements of the latest Design Stage Gate?</t>
+        </is>
+      </c>
+      <c r="BT95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU95" t="inlineStr">
+        <is>
+          <t>LOD Required</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -11906,11 +13455,26 @@
       </c>
       <c r="BM96" t="inlineStr"/>
       <c r="BN96" t="inlineStr"/>
+      <c r="BO96" t="inlineStr"/>
+      <c r="BP96" t="inlineStr"/>
+      <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
+      <c r="BS96" t="inlineStr"/>
+      <c r="BT96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU96" t="inlineStr">
+        <is>
+          <t>LOD Documented (drawing sample from Design Report)</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -12002,11 +13566,38 @@
       <c r="BL97" t="inlineStr"/>
       <c r="BM97" t="inlineStr"/>
       <c r="BN97" t="inlineStr"/>
+      <c r="BO97" t="inlineStr"/>
+      <c r="BP97" t="inlineStr"/>
+      <c r="BQ97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR97" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS97" t="inlineStr">
+        <is>
+          <t>Have all projects adopted digital delivery using BIM and/or GIS?</t>
+        </is>
+      </c>
+      <c r="BT97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU97" t="inlineStr">
+        <is>
+          <t>% of projects adopting digital delivery using BIM/GIS</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -12104,11 +13695,40 @@
       <c r="BL98" t="inlineStr"/>
       <c r="BM98" t="inlineStr"/>
       <c r="BN98" t="inlineStr"/>
+      <c r="BO98" t="inlineStr"/>
+      <c r="BP98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BQ98" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS98" t="inlineStr">
+        <is>
+          <t>Is project delivery occurring in accordance with the latest approved design strategy?</t>
+        </is>
+      </c>
+      <c r="BT98" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date of Latest Approved Design Strategy </t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -12186,11 +13806,34 @@
       <c r="BL99" t="inlineStr"/>
       <c r="BM99" t="inlineStr"/>
       <c r="BN99" t="inlineStr"/>
+      <c r="BO99" t="inlineStr"/>
+      <c r="BP99" t="inlineStr"/>
+      <c r="BQ99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">% of projects with completed technical design/peer reviews and verifications/certifications as required for the latest Design Stage Gate </t>
+        </is>
+      </c>
+      <c r="BT99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BU99" t="inlineStr">
+        <is>
+          <t>Number of projects with completed design reviews and verification register</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -12304,11 +13947,34 @@
       </c>
       <c r="BM100" t="inlineStr"/>
       <c r="BN100" t="inlineStr"/>
+      <c r="BO100" t="inlineStr"/>
+      <c r="BP100" t="inlineStr"/>
+      <c r="BQ100" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="BR100" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS100" t="inlineStr">
+        <is>
+          <t>% of Corrective Actions closed</t>
+        </is>
+      </c>
+      <c r="BT100" t="n">
+        <v>40</v>
+      </c>
+      <c r="BU100" t="inlineStr">
+        <is>
+          <t>Total Corrective Actions</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -12398,11 +14064,24 @@
       <c r="BL101" t="inlineStr"/>
       <c r="BM101" t="inlineStr"/>
       <c r="BN101" t="inlineStr"/>
+      <c r="BO101" t="inlineStr"/>
+      <c r="BP101" t="inlineStr"/>
+      <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
+      <c r="BS101" t="inlineStr"/>
+      <c r="BT101" t="n">
+        <v>34</v>
+      </c>
+      <c r="BU101" t="inlineStr">
+        <is>
+          <t>Number of Closed Corrective Actions</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -12518,11 +14197,34 @@
           <t>Pilot and R&amp;D Transition Rate</t>
         </is>
       </c>
+      <c r="BO102" t="inlineStr"/>
+      <c r="BP102" t="inlineStr"/>
+      <c r="BQ102" t="n">
+        <v>14</v>
+      </c>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
+      <c r="BS102" t="inlineStr">
+        <is>
+          <t>Average Cycle time to close corrective actions</t>
+        </is>
+      </c>
+      <c r="BT102" t="n">
+        <v>14</v>
+      </c>
+      <c r="BU102" t="inlineStr">
+        <is>
+          <t>Days taken to Close Corrective Actions</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -12600,11 +14302,38 @@
       <c r="BL103" t="inlineStr"/>
       <c r="BM103" t="inlineStr"/>
       <c r="BN103" t="inlineStr"/>
+      <c r="BO103" t="inlineStr"/>
+      <c r="BP103" t="inlineStr"/>
+      <c r="BQ103" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS103" t="inlineStr">
+        <is>
+          <t>Is the average cycle time to complete reviews and certifications in accordance with the Design Management Report?</t>
+        </is>
+      </c>
+      <c r="BT103" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU103" t="inlineStr">
+        <is>
+          <t>Days taken to complete Design Reviews</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -12692,11 +14421,38 @@
       <c r="BL104" t="inlineStr"/>
       <c r="BM104" t="inlineStr"/>
       <c r="BN104" t="inlineStr"/>
+      <c r="BO104" t="inlineStr"/>
+      <c r="BP104" t="inlineStr"/>
+      <c r="BQ104" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS104" t="inlineStr">
+        <is>
+          <t>Has the DevCo engaged independent certification of major critical elements?</t>
+        </is>
+      </c>
+      <c r="BT104" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU104" t="inlineStr">
+        <is>
+          <t>Level of review and verification required for Stage Gate</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -12776,11 +14532,40 @@
       <c r="BL105" t="inlineStr"/>
       <c r="BM105" t="inlineStr"/>
       <c r="BN105" t="inlineStr"/>
+      <c r="BO105" t="inlineStr"/>
+      <c r="BP105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BR105" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS105" t="inlineStr">
+        <is>
+          <t>Are all project designs integrated with Regional Infrastructure &amp; Mobility Plans?</t>
+        </is>
+      </c>
+      <c r="BT105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BU105" t="inlineStr">
+        <is>
+          <t>Regional Strategies</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -12880,11 +14665,38 @@
       </c>
       <c r="BM106" t="inlineStr"/>
       <c r="BN106" t="inlineStr"/>
+      <c r="BO106" t="inlineStr"/>
+      <c r="BP106" t="inlineStr"/>
+      <c r="BQ106" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS106" t="inlineStr">
+        <is>
+          <t>Do all projects comply with environmental guidelines in accordance with ESIA?</t>
+        </is>
+      </c>
+      <c r="BT106" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU106" t="inlineStr">
+        <is>
+          <t>Extent of compliance to environmental guidelines</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -12976,11 +14788,36 @@
       <c r="BL107" t="inlineStr"/>
       <c r="BM107" t="inlineStr"/>
       <c r="BN107" t="inlineStr"/>
+      <c r="BO107" t="inlineStr"/>
+      <c r="BP107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BQ107" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
+      <c r="BS107" t="inlineStr">
+        <is>
+          <t>% of projects with Code Compliance Violations</t>
+        </is>
+      </c>
+      <c r="BT107" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BU107" t="inlineStr">
+        <is>
+          <t>Total Number of Code Compliance Violations</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -13060,11 +14897,34 @@
       <c r="BL108" t="inlineStr"/>
       <c r="BM108" t="inlineStr"/>
       <c r="BN108" t="inlineStr"/>
+      <c r="BO108" t="inlineStr"/>
+      <c r="BP108" t="inlineStr"/>
+      <c r="BQ108" t="n">
+        <v>1.047619047619048</v>
+      </c>
+      <c r="BR108" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS108" t="inlineStr">
+        <is>
+          <t>% of approved deviation waivers against compliant codes &amp; standards</t>
+        </is>
+      </c>
+      <c r="BT108" t="n">
+        <v>21</v>
+      </c>
+      <c r="BU108" t="inlineStr">
+        <is>
+          <t>Total Waiver Applications Submitted</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -13154,11 +15014,24 @@
       <c r="BL109" t="inlineStr"/>
       <c r="BM109" t="inlineStr"/>
       <c r="BN109" t="inlineStr"/>
+      <c r="BO109" t="inlineStr"/>
+      <c r="BP109" t="inlineStr"/>
+      <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
+      <c r="BS109" t="inlineStr"/>
+      <c r="BT109" t="n">
+        <v>22</v>
+      </c>
+      <c r="BU109" t="inlineStr">
+        <is>
+          <t>Total Waivers Approved</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -13274,11 +15147,38 @@
           <t>Organization Maturity Towards Innovation Adoption</t>
         </is>
       </c>
+      <c r="BO110" t="inlineStr"/>
+      <c r="BP110" t="inlineStr"/>
+      <c r="BQ110" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR110" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS110" t="inlineStr">
+        <is>
+          <t>Have all required Stakeholder Submittals been issued?</t>
+        </is>
+      </c>
+      <c r="BT110" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU110" t="inlineStr">
+        <is>
+          <t>Stakeholder Submittal Date</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -13368,11 +15268,34 @@
       <c r="BL111" t="inlineStr"/>
       <c r="BM111" t="inlineStr"/>
       <c r="BN111" t="inlineStr"/>
+      <c r="BO111" t="inlineStr"/>
+      <c r="BP111" t="inlineStr"/>
+      <c r="BQ111" t="n">
+        <v>0.3174603174603175</v>
+      </c>
+      <c r="BR111" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS111" t="inlineStr">
+        <is>
+          <t>% of time critical Stakeholder Approvals Pending impacting Design Stage Gate completion</t>
+        </is>
+      </c>
+      <c r="BT111" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BU111" t="inlineStr">
+        <is>
+          <t>Number of Stakeholder Approvals Pending</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -13450,11 +15373,24 @@
       <c r="BL112" t="inlineStr"/>
       <c r="BM112" t="inlineStr"/>
       <c r="BN112" t="inlineStr"/>
+      <c r="BO112" t="inlineStr"/>
+      <c r="BP112" t="inlineStr"/>
+      <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
+      <c r="BS112" t="inlineStr"/>
+      <c r="BT112" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="BU112" t="inlineStr">
+        <is>
+          <t>Total number of stakeholder approvals required</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
@@ -13546,11 +15482,38 @@
       <c r="BL113" t="inlineStr"/>
       <c r="BM113" t="inlineStr"/>
       <c r="BN113" t="inlineStr"/>
+      <c r="BO113" t="inlineStr"/>
+      <c r="BP113" t="inlineStr"/>
+      <c r="BQ113" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR113" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="BS113" t="inlineStr">
+        <is>
+          <t>Does the Stakeholder Engagement Plan include proactive communication process to ensure timley coordination and approvals?</t>
+        </is>
+      </c>
+      <c r="BT113" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU113" t="inlineStr">
+        <is>
+          <t>Scheduled Design Stage Gate Completion</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -13658,11 +15621,34 @@
       </c>
       <c r="BM114" t="inlineStr"/>
       <c r="BN114" t="inlineStr"/>
+      <c r="BO114" t="inlineStr"/>
+      <c r="BP114" t="inlineStr"/>
+      <c r="BQ114" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS114" t="inlineStr">
+        <is>
+          <t>% of Stakeholder Comments Closed</t>
+        </is>
+      </c>
+      <c r="BT114" t="n">
+        <v>21</v>
+      </c>
+      <c r="BU114" t="inlineStr">
+        <is>
+          <t>Total Stakeholder Comments</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -13740,11 +15726,24 @@
       <c r="BL115" t="inlineStr"/>
       <c r="BM115" t="inlineStr"/>
       <c r="BN115" t="inlineStr"/>
+      <c r="BO115" t="inlineStr"/>
+      <c r="BP115" t="inlineStr"/>
+      <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
+      <c r="BS115" t="inlineStr"/>
+      <c r="BT115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU115" t="inlineStr">
+        <is>
+          <t>Stakeholder Comments Closed</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -13832,11 +15831,36 @@
       <c r="BL116" t="inlineStr"/>
       <c r="BM116" t="inlineStr"/>
       <c r="BN116" t="inlineStr"/>
+      <c r="BO116" t="inlineStr"/>
+      <c r="BP116" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR116" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS116" t="inlineStr">
+        <is>
+          <t>% of projects achieving DevCo ESG Targets</t>
+        </is>
+      </c>
+      <c r="BT116" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU116" t="inlineStr">
+        <is>
+          <t>Planned ESG Target</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -13914,11 +15938,24 @@
       <c r="BL117" t="inlineStr"/>
       <c r="BM117" t="inlineStr"/>
       <c r="BN117" t="inlineStr"/>
+      <c r="BO117" t="inlineStr"/>
+      <c r="BP117" t="inlineStr"/>
+      <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
+      <c r="BS117" t="inlineStr"/>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="inlineStr">
+        <is>
+          <t>Actual ESG Target</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -14006,11 +16043,40 @@
       <c r="BL118" t="inlineStr"/>
       <c r="BM118" t="inlineStr"/>
       <c r="BN118" t="inlineStr"/>
+      <c r="BO118" t="inlineStr"/>
+      <c r="BP118" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BR118" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
+      <c r="BS118" t="inlineStr">
+        <is>
+          <t>Does the DevCo ESG Target align with globally recognized Best Practice Targets?</t>
+        </is>
+      </c>
+      <c r="BT118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BU118" t="inlineStr">
+        <is>
+          <t>Alignment with globally recognized Best Practice Targets</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -14088,11 +16154,18 @@
       <c r="BL119" t="inlineStr"/>
       <c r="BM119" t="inlineStr"/>
       <c r="BN119" t="inlineStr"/>
+      <c r="BO119" t="inlineStr"/>
+      <c r="BP119" t="inlineStr"/>
+      <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
+      <c r="BS119" t="inlineStr"/>
+      <c r="BT119" t="inlineStr"/>
+      <c r="BU119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -14180,11 +16253,18 @@
       <c r="BL120" t="inlineStr"/>
       <c r="BM120" t="inlineStr"/>
       <c r="BN120" t="inlineStr"/>
+      <c r="BO120" t="inlineStr"/>
+      <c r="BP120" t="inlineStr"/>
+      <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
+      <c r="BS120" t="inlineStr"/>
+      <c r="BT120" t="inlineStr"/>
+      <c r="BU120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -14262,11 +16342,18 @@
       <c r="BL121" t="inlineStr"/>
       <c r="BM121" t="inlineStr"/>
       <c r="BN121" t="inlineStr"/>
+      <c r="BO121" t="inlineStr"/>
+      <c r="BP121" t="inlineStr"/>
+      <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
+      <c r="BS121" t="inlineStr"/>
+      <c r="BT121" t="inlineStr"/>
+      <c r="BU121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -14358,11 +16445,18 @@
       <c r="BL122" t="inlineStr"/>
       <c r="BM122" t="inlineStr"/>
       <c r="BN122" t="inlineStr"/>
+      <c r="BO122" t="inlineStr"/>
+      <c r="BP122" t="inlineStr"/>
+      <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
+      <c r="BS122" t="inlineStr"/>
+      <c r="BT122" t="inlineStr"/>
+      <c r="BU122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -14454,11 +16548,18 @@
       <c r="BL123" t="inlineStr"/>
       <c r="BM123" t="inlineStr"/>
       <c r="BN123" t="inlineStr"/>
+      <c r="BO123" t="inlineStr"/>
+      <c r="BP123" t="inlineStr"/>
+      <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
+      <c r="BS123" t="inlineStr"/>
+      <c r="BT123" t="inlineStr"/>
+      <c r="BU123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -14536,11 +16637,18 @@
       <c r="BL124" t="inlineStr"/>
       <c r="BM124" t="inlineStr"/>
       <c r="BN124" t="inlineStr"/>
+      <c r="BO124" t="inlineStr"/>
+      <c r="BP124" t="inlineStr"/>
+      <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
+      <c r="BS124" t="inlineStr"/>
+      <c r="BT124" t="inlineStr"/>
+      <c r="BU124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -14628,11 +16736,18 @@
       <c r="BL125" t="inlineStr"/>
       <c r="BM125" t="inlineStr"/>
       <c r="BN125" t="inlineStr"/>
+      <c r="BO125" t="inlineStr"/>
+      <c r="BP125" t="inlineStr"/>
+      <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
+      <c r="BS125" t="inlineStr"/>
+      <c r="BT125" t="inlineStr"/>
+      <c r="BU125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -14710,11 +16825,18 @@
       <c r="BL126" t="inlineStr"/>
       <c r="BM126" t="inlineStr"/>
       <c r="BN126" t="inlineStr"/>
+      <c r="BO126" t="inlineStr"/>
+      <c r="BP126" t="inlineStr"/>
+      <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
+      <c r="BS126" t="inlineStr"/>
+      <c r="BT126" t="inlineStr"/>
+      <c r="BU126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -14802,11 +16924,18 @@
       <c r="BL127" t="inlineStr"/>
       <c r="BM127" t="inlineStr"/>
       <c r="BN127" t="inlineStr"/>
+      <c r="BO127" t="inlineStr"/>
+      <c r="BP127" t="inlineStr"/>
+      <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
+      <c r="BS127" t="inlineStr"/>
+      <c r="BT127" t="inlineStr"/>
+      <c r="BU127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -14898,11 +17027,18 @@
       <c r="BL128" t="inlineStr"/>
       <c r="BM128" t="inlineStr"/>
       <c r="BN128" t="inlineStr"/>
+      <c r="BO128" t="inlineStr"/>
+      <c r="BP128" t="inlineStr"/>
+      <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
+      <c r="BS128" t="inlineStr"/>
+      <c r="BT128" t="inlineStr"/>
+      <c r="BU128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -14998,11 +17134,18 @@
       <c r="BL129" t="inlineStr"/>
       <c r="BM129" t="inlineStr"/>
       <c r="BN129" t="inlineStr"/>
+      <c r="BO129" t="inlineStr"/>
+      <c r="BP129" t="inlineStr"/>
+      <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
+      <c r="BS129" t="inlineStr"/>
+      <c r="BT129" t="inlineStr"/>
+      <c r="BU129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -15104,11 +17247,18 @@
       <c r="BL130" t="inlineStr"/>
       <c r="BM130" t="inlineStr"/>
       <c r="BN130" t="inlineStr"/>
+      <c r="BO130" t="inlineStr"/>
+      <c r="BP130" t="inlineStr"/>
+      <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
+      <c r="BS130" t="inlineStr"/>
+      <c r="BT130" t="inlineStr"/>
+      <c r="BU130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -15200,11 +17350,18 @@
       <c r="BL131" t="inlineStr"/>
       <c r="BM131" t="inlineStr"/>
       <c r="BN131" t="inlineStr"/>
+      <c r="BO131" t="inlineStr"/>
+      <c r="BP131" t="inlineStr"/>
+      <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
+      <c r="BS131" t="inlineStr"/>
+      <c r="BT131" t="inlineStr"/>
+      <c r="BU131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
@@ -15292,11 +17449,18 @@
       <c r="BL132" t="inlineStr"/>
       <c r="BM132" t="inlineStr"/>
       <c r="BN132" t="inlineStr"/>
+      <c r="BO132" t="inlineStr"/>
+      <c r="BP132" t="inlineStr"/>
+      <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
+      <c r="BS132" t="inlineStr"/>
+      <c r="BT132" t="inlineStr"/>
+      <c r="BU132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -15374,11 +17538,18 @@
       <c r="BL133" t="inlineStr"/>
       <c r="BM133" t="inlineStr"/>
       <c r="BN133" t="inlineStr"/>
+      <c r="BO133" t="inlineStr"/>
+      <c r="BP133" t="inlineStr"/>
+      <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
+      <c r="BS133" t="inlineStr"/>
+      <c r="BT133" t="inlineStr"/>
+      <c r="BU133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -15470,11 +17641,18 @@
       <c r="BL134" t="inlineStr"/>
       <c r="BM134" t="inlineStr"/>
       <c r="BN134" t="inlineStr"/>
+      <c r="BO134" t="inlineStr"/>
+      <c r="BP134" t="inlineStr"/>
+      <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
+      <c r="BS134" t="inlineStr"/>
+      <c r="BT134" t="inlineStr"/>
+      <c r="BU134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
@@ -15566,11 +17744,18 @@
       <c r="BL135" t="inlineStr"/>
       <c r="BM135" t="inlineStr"/>
       <c r="BN135" t="inlineStr"/>
+      <c r="BO135" t="inlineStr"/>
+      <c r="BP135" t="inlineStr"/>
+      <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
+      <c r="BS135" t="inlineStr"/>
+      <c r="BT135" t="inlineStr"/>
+      <c r="BU135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -15652,11 +17837,18 @@
       <c r="BL136" t="inlineStr"/>
       <c r="BM136" t="inlineStr"/>
       <c r="BN136" t="inlineStr"/>
+      <c r="BO136" t="inlineStr"/>
+      <c r="BP136" t="inlineStr"/>
+      <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
+      <c r="BS136" t="inlineStr"/>
+      <c r="BT136" t="inlineStr"/>
+      <c r="BU136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -15746,11 +17938,18 @@
       <c r="BL137" t="inlineStr"/>
       <c r="BM137" t="inlineStr"/>
       <c r="BN137" t="inlineStr"/>
+      <c r="BO137" t="inlineStr"/>
+      <c r="BP137" t="inlineStr"/>
+      <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
+      <c r="BS137" t="inlineStr"/>
+      <c r="BT137" t="inlineStr"/>
+      <c r="BU137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -15828,11 +18027,18 @@
       <c r="BL138" t="inlineStr"/>
       <c r="BM138" t="inlineStr"/>
       <c r="BN138" t="inlineStr"/>
+      <c r="BO138" t="inlineStr"/>
+      <c r="BP138" t="inlineStr"/>
+      <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
+      <c r="BS138" t="inlineStr"/>
+      <c r="BT138" t="inlineStr"/>
+      <c r="BU138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -15912,11 +18118,18 @@
       <c r="BL139" t="inlineStr"/>
       <c r="BM139" t="inlineStr"/>
       <c r="BN139" t="inlineStr"/>
+      <c r="BO139" t="inlineStr"/>
+      <c r="BP139" t="inlineStr"/>
+      <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
+      <c r="BS139" t="inlineStr"/>
+      <c r="BT139" t="inlineStr"/>
+      <c r="BU139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -15996,11 +18209,18 @@
       <c r="BL140" t="inlineStr"/>
       <c r="BM140" t="inlineStr"/>
       <c r="BN140" t="inlineStr"/>
+      <c r="BO140" t="inlineStr"/>
+      <c r="BP140" t="inlineStr"/>
+      <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
+      <c r="BS140" t="inlineStr"/>
+      <c r="BT140" t="inlineStr"/>
+      <c r="BU140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -16088,11 +18308,18 @@
       <c r="BL141" t="inlineStr"/>
       <c r="BM141" t="inlineStr"/>
       <c r="BN141" t="inlineStr"/>
+      <c r="BO141" t="inlineStr"/>
+      <c r="BP141" t="inlineStr"/>
+      <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
+      <c r="BS141" t="inlineStr"/>
+      <c r="BT141" t="inlineStr"/>
+      <c r="BU141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -16180,11 +18407,18 @@
       <c r="BL142" t="inlineStr"/>
       <c r="BM142" t="inlineStr"/>
       <c r="BN142" t="inlineStr"/>
+      <c r="BO142" t="inlineStr"/>
+      <c r="BP142" t="inlineStr"/>
+      <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
+      <c r="BS142" t="inlineStr"/>
+      <c r="BT142" t="inlineStr"/>
+      <c r="BU142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -16272,11 +18506,18 @@
       <c r="BL143" t="inlineStr"/>
       <c r="BM143" t="inlineStr"/>
       <c r="BN143" t="inlineStr"/>
+      <c r="BO143" t="inlineStr"/>
+      <c r="BP143" t="inlineStr"/>
+      <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
+      <c r="BS143" t="inlineStr"/>
+      <c r="BT143" t="inlineStr"/>
+      <c r="BU143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -16366,11 +18607,18 @@
       <c r="BL144" t="inlineStr"/>
       <c r="BM144" t="inlineStr"/>
       <c r="BN144" t="inlineStr"/>
+      <c r="BO144" t="inlineStr"/>
+      <c r="BP144" t="inlineStr"/>
+      <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
+      <c r="BS144" t="inlineStr"/>
+      <c r="BT144" t="inlineStr"/>
+      <c r="BU144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -16460,11 +18708,18 @@
       <c r="BL145" t="inlineStr"/>
       <c r="BM145" t="inlineStr"/>
       <c r="BN145" t="inlineStr"/>
+      <c r="BO145" t="inlineStr"/>
+      <c r="BP145" t="inlineStr"/>
+      <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
+      <c r="BS145" t="inlineStr"/>
+      <c r="BT145" t="inlineStr"/>
+      <c r="BU145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -16554,11 +18809,18 @@
       <c r="BL146" t="inlineStr"/>
       <c r="BM146" t="inlineStr"/>
       <c r="BN146" t="inlineStr"/>
+      <c r="BO146" t="inlineStr"/>
+      <c r="BP146" t="inlineStr"/>
+      <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
+      <c r="BS146" t="inlineStr"/>
+      <c r="BT146" t="inlineStr"/>
+      <c r="BU146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
@@ -16638,11 +18900,18 @@
       <c r="BL147" t="inlineStr"/>
       <c r="BM147" t="inlineStr"/>
       <c r="BN147" t="inlineStr"/>
+      <c r="BO147" t="inlineStr"/>
+      <c r="BP147" t="inlineStr"/>
+      <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
+      <c r="BS147" t="inlineStr"/>
+      <c r="BT147" t="inlineStr"/>
+      <c r="BU147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -16736,11 +19005,18 @@
       <c r="BL148" t="inlineStr"/>
       <c r="BM148" t="inlineStr"/>
       <c r="BN148" t="inlineStr"/>
+      <c r="BO148" t="inlineStr"/>
+      <c r="BP148" t="inlineStr"/>
+      <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
+      <c r="BS148" t="inlineStr"/>
+      <c r="BT148" t="inlineStr"/>
+      <c r="BU148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -16818,11 +19094,18 @@
       <c r="BL149" t="inlineStr"/>
       <c r="BM149" t="inlineStr"/>
       <c r="BN149" t="inlineStr"/>
+      <c r="BO149" t="inlineStr"/>
+      <c r="BP149" t="inlineStr"/>
+      <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
+      <c r="BS149" t="inlineStr"/>
+      <c r="BT149" t="inlineStr"/>
+      <c r="BU149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -16916,11 +19199,18 @@
       <c r="BL150" t="inlineStr"/>
       <c r="BM150" t="inlineStr"/>
       <c r="BN150" t="inlineStr"/>
+      <c r="BO150" t="inlineStr"/>
+      <c r="BP150" t="inlineStr"/>
+      <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
+      <c r="BS150" t="inlineStr"/>
+      <c r="BT150" t="inlineStr"/>
+      <c r="BU150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -17012,11 +19302,18 @@
       <c r="BL151" t="inlineStr"/>
       <c r="BM151" t="inlineStr"/>
       <c r="BN151" t="inlineStr"/>
+      <c r="BO151" t="inlineStr"/>
+      <c r="BP151" t="inlineStr"/>
+      <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
+      <c r="BS151" t="inlineStr"/>
+      <c r="BT151" t="inlineStr"/>
+      <c r="BU151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -17104,11 +19401,18 @@
       <c r="BL152" t="inlineStr"/>
       <c r="BM152" t="inlineStr"/>
       <c r="BN152" t="inlineStr"/>
+      <c r="BO152" t="inlineStr"/>
+      <c r="BP152" t="inlineStr"/>
+      <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
+      <c r="BS152" t="inlineStr"/>
+      <c r="BT152" t="inlineStr"/>
+      <c r="BU152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -17186,11 +19490,18 @@
       <c r="BL153" t="inlineStr"/>
       <c r="BM153" t="inlineStr"/>
       <c r="BN153" t="inlineStr"/>
+      <c r="BO153" t="inlineStr"/>
+      <c r="BP153" t="inlineStr"/>
+      <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
+      <c r="BS153" t="inlineStr"/>
+      <c r="BT153" t="inlineStr"/>
+      <c r="BU153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -17278,11 +19589,18 @@
       <c r="BL154" t="inlineStr"/>
       <c r="BM154" t="inlineStr"/>
       <c r="BN154" t="inlineStr"/>
+      <c r="BO154" t="inlineStr"/>
+      <c r="BP154" t="inlineStr"/>
+      <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
+      <c r="BS154" t="inlineStr"/>
+      <c r="BT154" t="inlineStr"/>
+      <c r="BU154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -17356,11 +19674,18 @@
       <c r="BL155" t="inlineStr"/>
       <c r="BM155" t="inlineStr"/>
       <c r="BN155" t="inlineStr"/>
+      <c r="BO155" t="inlineStr"/>
+      <c r="BP155" t="inlineStr"/>
+      <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
+      <c r="BS155" t="inlineStr"/>
+      <c r="BT155" t="inlineStr"/>
+      <c r="BU155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -17448,11 +19773,18 @@
       <c r="BL156" t="inlineStr"/>
       <c r="BM156" t="inlineStr"/>
       <c r="BN156" t="inlineStr"/>
+      <c r="BO156" t="inlineStr"/>
+      <c r="BP156" t="inlineStr"/>
+      <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
+      <c r="BS156" t="inlineStr"/>
+      <c r="BT156" t="inlineStr"/>
+      <c r="BU156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>qiddiyah</t>
+          <t>qiddiya</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -17540,6 +19872,13 @@
       <c r="BL157" t="inlineStr"/>
       <c r="BM157" t="inlineStr"/>
       <c r="BN157" t="inlineStr"/>
+      <c r="BO157" t="inlineStr"/>
+      <c r="BP157" t="inlineStr"/>
+      <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
+      <c r="BS157" t="inlineStr"/>
+      <c r="BT157" t="inlineStr"/>
+      <c r="BU157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/master_sheet.xlsx
+++ b/master_sheet.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Glossary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -605,115 +606,119 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
           <t>Baseline</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Forecast</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Incident Category</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Number of Incidents (To-Date)</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Number of Investigations in Progress</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Number of Investigations Completed</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Number of Investigations Pending Approval</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Audits/Inspections</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>In Progress_audits</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Completed_audits</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Remaining Planned</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Actions</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>In Progress_actions</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Completed_actions</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Pending Approval</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Value_training</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Program</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Acquired (Ha)</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Under Negotiation (Ha)</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Pending (Ha)</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr"/>
       <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Assessment Criteria</t>
@@ -997,22 +1002,24 @@
       <c r="AG2" t="n">
         <v>180</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
         <v>186</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>129</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>50</v>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>Fatalities</t>
         </is>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1023,57 +1030,59 @@
       <c r="AO2" t="n">
         <v>0</v>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>HSE Audit</t>
         </is>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>3</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>5</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>4</v>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>HSE</t>
         </is>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>6</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>22</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>12</v>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
         <v>30</v>
       </c>
-      <c r="AZ2" t="inlineStr">
+      <c r="BA2" t="inlineStr">
         <is>
           <t>Program 1</t>
         </is>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>50</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>25</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>5</v>
       </c>
-      <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr">
         <is>
           <t>% of CESMP mitigation measures which align with ESIA*</t>
@@ -1317,83 +1326,87 @@
       <c r="AG3" t="n">
         <v>120</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
         <v>16100</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>9600</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>6800</v>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>Severe Impairment</t>
         </is>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>1</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>1</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>0</v>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>Welfare Inspection</t>
         </is>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>2</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>4</v>
       </c>
       <c r="AS3" t="n">
         <v>4</v>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AT3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU3" t="inlineStr">
         <is>
           <t>Welfare</t>
         </is>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>25</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AW3" t="n">
         <v>10</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AX3" t="n">
         <v>7</v>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="AY3" t="n">
+      <c r="AZ3" t="n">
         <v>40</v>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>Program 2</t>
         </is>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>230</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
         <v>40</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>30</v>
       </c>
-      <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
@@ -1602,24 +1615,24 @@
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr">
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>Lost Time Incidents</t>
         </is>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>3</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>1</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>2</v>
       </c>
-      <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1627,29 +1640,29 @@
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr">
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="AY4" t="n">
+      <c r="AZ4" t="n">
         <v>38</v>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>Program 3</t>
         </is>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>10</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>80</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>10</v>
       </c>
-      <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr">
         <is>
           <t>Has the Construction Execution Plan been updated to reflect the latest stage of construction?</t>
@@ -1868,24 +1881,24 @@
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr">
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr">
         <is>
           <t>Recordable Incidents</t>
         </is>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>14</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>3</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5" t="n">
         <v>11</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>0</v>
       </c>
-      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1893,15 +1906,15 @@
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr">
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
       </c>
-      <c r="AY5" t="n">
+      <c r="AZ5" t="n">
         <v>35</v>
       </c>
-      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
@@ -2140,24 +2153,24 @@
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr">
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
         <is>
           <t>Near Misses</t>
         </is>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>26</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>2</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AO6" t="n">
         <v>21</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>3</v>
       </c>
-      <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -2165,15 +2178,15 @@
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr">
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="AY6" t="n">
+      <c r="AZ6" t="n">
         <v>0</v>
       </c>
-      <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr"/>
@@ -2401,15 +2414,15 @@
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr">
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
       </c>
-      <c r="AY7" t="n">
+      <c r="AZ7" t="n">
         <v>0</v>
       </c>
-      <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="inlineStr"/>
@@ -2615,15 +2628,15 @@
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr">
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
       </c>
-      <c r="AY8" t="n">
+      <c r="AZ8" t="n">
         <v>0</v>
       </c>
-      <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr"/>
       <c r="BC8" t="inlineStr"/>
@@ -2825,15 +2838,15 @@
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr">
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
       </c>
-      <c r="AY9" t="n">
+      <c r="AZ9" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr"/>
       <c r="BC9" t="inlineStr"/>
@@ -3047,15 +3060,15 @@
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr">
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
       </c>
-      <c r="AY10" t="n">
+      <c r="AZ10" t="n">
         <v>0</v>
       </c>
-      <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr"/>
       <c r="BC10" t="inlineStr"/>
@@ -3267,15 +3280,15 @@
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr">
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
       </c>
-      <c r="AY11" t="n">
+      <c r="AZ11" t="n">
         <v>0</v>
       </c>
-      <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr"/>
@@ -3429,15 +3442,15 @@
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr">
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
       </c>
-      <c r="AY12" t="n">
+      <c r="AZ12" t="n">
         <v>0</v>
       </c>
-      <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr"/>
       <c r="BC12" t="inlineStr"/>
@@ -3611,15 +3624,15 @@
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr">
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
       </c>
-      <c r="AY13" t="n">
+      <c r="AZ13" t="n">
         <v>0</v>
       </c>
-      <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
       <c r="BC13" t="inlineStr"/>
@@ -4244,9 +4257,7 @@
           <t>Average time to complete shop drawing reviews</t>
         </is>
       </c>
-      <c r="AG17" t="n">
-        <v>480</v>
-      </c>
+      <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
@@ -4386,7 +4397,9 @@
           <t>Number of shop drawing review conducted</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr"/>
+      <c r="AG18" t="n">
+        <v>14550</v>
+      </c>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
@@ -5278,7 +5291,7 @@
       </c>
       <c r="BK24" t="inlineStr">
         <is>
-          <t>Number of As-Built review requests</t>
+          <t>Number of As-Built Drawing review requests</t>
         </is>
       </c>
       <c r="BL24" t="n">
@@ -5412,7 +5425,7 @@
       <c r="BJ25" t="inlineStr"/>
       <c r="BK25" t="inlineStr">
         <is>
-          <t>Number of As-built reviews / approvals</t>
+          <t>Number of As-Built Drawings reviews approved</t>
         </is>
       </c>
       <c r="BL25" t="n">
@@ -5822,7 +5835,7 @@
       </c>
       <c r="BK28" t="inlineStr">
         <is>
-          <t>Total number of MIRs approved / rejected</t>
+          <t>Total number of MIRs approved</t>
         </is>
       </c>
       <c r="BL28" t="n">
@@ -5922,7 +5935,11 @@
           <t xml:space="preserve">Leadership engagement </t>
         </is>
       </c>
-      <c r="AG29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
@@ -6057,13 +6074,11 @@
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leadership engagement </t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>Satisfactory</t>
-        </is>
+          <t>Total number of ITPs requested</t>
+        </is>
+      </c>
+      <c r="AG30" t="n">
+        <v>100</v>
       </c>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
@@ -6179,11 +6194,11 @@
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>Total number of ITPs requested</t>
+          <t>Total number of ITPs attended</t>
         </is>
       </c>
       <c r="AG31" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
@@ -6230,7 +6245,7 @@
       </c>
       <c r="BK31" t="inlineStr">
         <is>
-          <t>Total number of WIRs approved / rejected</t>
+          <t>Total number of WIRs approved</t>
         </is>
       </c>
       <c r="BL31" t="n">
@@ -6303,11 +6318,11 @@
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>Total number of ITPs attended</t>
+          <t>Total number of ITPs approved</t>
         </is>
       </c>
       <c r="AG32" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
@@ -6467,11 +6482,11 @@
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>Total number of ITPs approved</t>
+          <t>Total number of ITPs completed</t>
         </is>
       </c>
       <c r="AG33" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
@@ -6601,12 +6616,10 @@
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>Total number of ITPs completed</t>
-        </is>
-      </c>
-      <c r="AG34" t="n">
-        <v>85</v>
-      </c>
+          <t>Total number Quality Reports completed</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
@@ -6711,10 +6724,14 @@
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>Total number Quality Reports completed</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr"/>
+          <t>Completeness of Quality Management Plan</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>Needs Improvement</t>
+        </is>
+      </c>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
@@ -6847,14 +6864,10 @@
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>Completeness of Quality Management Plan</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>Needs Improvement</t>
-        </is>
-      </c>
+          <t>Required number of ITPs signed off throughout construction</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
@@ -6999,7 +7012,7 @@
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Required number of ITPs signed off throughout construction</t>
+          <t>Total number of raised closed-out defects &amp; NCRs</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr"/>
@@ -7107,7 +7120,7 @@
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>Total number of raised closed-out defects &amp; NCRs</t>
+          <t>Forecasted Procurement Budget</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr"/>
@@ -7251,7 +7264,7 @@
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>Forecasted Procurement Budget</t>
+          <t>Actual Procurement Budget</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr"/>
@@ -7359,7 +7372,7 @@
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>Actual Procurement Budget</t>
+          <t>Vendor Database</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr"/>
@@ -7501,7 +7514,7 @@
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>Vendor Database</t>
+          <t>Vendor Shortlist</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr"/>
@@ -7603,7 +7616,7 @@
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>Vendor Shortlist</t>
+          <t>Vendor Awarded</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr"/>
@@ -7719,7 +7732,7 @@
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>Vendor Awarded</t>
+          <t>Vendor KPIs</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr"/>
@@ -7821,7 +7834,7 @@
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>Vendor KPIs</t>
+          <t>Vendor Performance Database</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr"/>
@@ -7941,7 +7954,7 @@
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>Vendor Performance Database</t>
+          <t>Tender return date: Planned / Actual</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr"/>
@@ -8063,7 +8076,7 @@
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>Tender return date: Planned / Actual</t>
+          <t>Tender Review &amp; award time: Planned / actual</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr"/>
@@ -8165,7 +8178,7 @@
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>Tender Review &amp; award time: Planned / actual</t>
+          <t>Pre-Tender Cost Estimate</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr"/>
@@ -8281,7 +8294,7 @@
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Pre-Tender Cost Estimate</t>
+          <t xml:space="preserve">Tender Performance Index </t>
         </is>
       </c>
       <c r="AG48" t="inlineStr"/>
@@ -8383,10 +8396,14 @@
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tender Performance Index </t>
-        </is>
-      </c>
-      <c r="AG49" t="inlineStr"/>
+          <t>Contract clauses</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>Satisfactory</t>
+        </is>
+      </c>
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
@@ -8499,12 +8516,12 @@
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>Contract clauses</t>
+          <t>Procurement Management Plan</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>Satisfactory</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr"/>
@@ -8623,12 +8640,12 @@
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>Procurement Management Plan</t>
+          <t xml:space="preserve">Scope / design maturity </t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Satisfactory</t>
         </is>
       </c>
       <c r="AH51" t="inlineStr"/>
@@ -8747,14 +8764,10 @@
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scope / design maturity </t>
-        </is>
-      </c>
-      <c r="AG52" t="inlineStr">
-        <is>
-          <t>Satisfactory</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Compliance with local content regulations / policies </t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
@@ -8877,7 +8890,7 @@
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compliance with local content regulations / policies </t>
+          <t xml:space="preserve">Dispute rate </t>
         </is>
       </c>
       <c r="AG53" t="inlineStr"/>
@@ -8997,7 +9010,7 @@
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dispute rate </t>
+          <t xml:space="preserve">Claims processing cycle time </t>
         </is>
       </c>
       <c r="AG54" t="inlineStr"/>
@@ -9113,7 +9126,7 @@
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claims processing cycle time </t>
+          <t>No. of related CRs being requested during or after tendering phase due to identified scope gap</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr"/>
@@ -9215,10 +9228,14 @@
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>No. of related CRs being requested during or after tendering phase due to identified scope gap</t>
-        </is>
-      </c>
-      <c r="AG56" t="inlineStr"/>
+          <t>Vendor Performance Assessment</t>
+        </is>
+      </c>
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
       <c r="AJ56" t="inlineStr"/>
@@ -9335,12 +9352,12 @@
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>Vendor Performance Assessment</t>
+          <t>Tender pack quality</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Satisfactory</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr"/>
@@ -9455,13 +9472,11 @@
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>Tender pack quality</t>
-        </is>
-      </c>
-      <c r="AG58" t="inlineStr">
-        <is>
-          <t>Satisfactory</t>
-        </is>
+          <t>% payment paid within contractual terms</t>
+        </is>
+      </c>
+      <c r="AG58" t="n">
+        <v>80</v>
       </c>
       <c r="AH58" t="inlineStr"/>
       <c r="AI58" t="inlineStr"/>
@@ -9561,12 +9576,10 @@
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>% payment paid within contractual terms</t>
-        </is>
-      </c>
-      <c r="AG59" t="n">
-        <v>80</v>
-      </c>
+          <t>Planned Packages</t>
+        </is>
+      </c>
+      <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr"/>
@@ -9681,7 +9694,7 @@
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>Planned Packages</t>
+          <t>Awarded Packages</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr"/>
@@ -9783,7 +9796,7 @@
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>Awarded Packages</t>
+          <t>Trade Most at Risk</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr"/>
@@ -9887,7 +9900,7 @@
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>Trade Most at Risk</t>
+          <t xml:space="preserve">Highest Risk Work Site </t>
         </is>
       </c>
       <c r="AG62" t="inlineStr"/>
@@ -9991,7 +10004,7 @@
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Highest Risk Work Site </t>
+          <t>Number of planned audits</t>
         </is>
       </c>
       <c r="AG63" t="inlineStr"/>
@@ -10107,7 +10120,7 @@
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>Number of planned audits</t>
+          <t xml:space="preserve">Number of conducted audits </t>
         </is>
       </c>
       <c r="AG64" t="inlineStr"/>
@@ -10223,10 +10236,12 @@
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Number of conducted audits </t>
-        </is>
-      </c>
-      <c r="AG65" t="inlineStr"/>
+          <t>Number of Notifiable Incidents</t>
+        </is>
+      </c>
+      <c r="AG65" t="n">
+        <v>6</v>
+      </c>
       <c r="AH65" t="inlineStr"/>
       <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
@@ -10339,11 +10354,11 @@
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>Number of Notifiable Incidents</t>
+          <t>Number of Infringement Notices</t>
         </is>
       </c>
       <c r="AG66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH66" t="inlineStr"/>
       <c r="AI66" t="inlineStr"/>
@@ -10457,12 +10472,10 @@
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>Number of Infringement Notices</t>
-        </is>
-      </c>
-      <c r="AG67" t="n">
-        <v>2</v>
-      </c>
+          <t xml:space="preserve">Total Safe Manhours </t>
+        </is>
+      </c>
+      <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="inlineStr"/>
       <c r="AI67" t="inlineStr"/>
       <c r="AJ67" t="inlineStr"/>
@@ -10575,7 +10588,7 @@
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Total Safe Manhours </t>
+          <t xml:space="preserve">Total number of closed Corrective actions </t>
         </is>
       </c>
       <c r="AG68" t="inlineStr"/>
@@ -10691,7 +10704,7 @@
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Total number of closed Corrective actions </t>
+          <t>Inspection Pass Rate</t>
         </is>
       </c>
       <c r="AG69" t="inlineStr"/>
@@ -10793,7 +10806,7 @@
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>Inspection Pass Rate</t>
+          <t>No. of recurring incidents / safety observations outside control</t>
         </is>
       </c>
       <c r="AG70" t="inlineStr"/>
@@ -10915,10 +10928,12 @@
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>No. of recurring incidents / safety observations outside control</t>
-        </is>
-      </c>
-      <c r="AG71" t="inlineStr"/>
+          <t xml:space="preserve">Total Site Manhours </t>
+        </is>
+      </c>
+      <c r="AG71" t="n">
+        <v>180000000</v>
+      </c>
       <c r="AH71" t="inlineStr"/>
       <c r="AI71" t="inlineStr"/>
       <c r="AJ71" t="inlineStr"/>
@@ -11017,12 +11032,10 @@
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Total Site Manhours </t>
-        </is>
-      </c>
-      <c r="AG72" t="n">
-        <v>180000000</v>
-      </c>
+          <t>Welfare of labor camps</t>
+        </is>
+      </c>
+      <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="inlineStr"/>
       <c r="AI72" t="inlineStr"/>
       <c r="AJ72" t="inlineStr"/>
@@ -11139,7 +11152,7 @@
       <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>Welfare of labor camps</t>
+          <t>Welfare of site facilities</t>
         </is>
       </c>
       <c r="AG73" t="inlineStr"/>
@@ -11259,7 +11272,7 @@
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>Welfare of site facilities</t>
+          <t>Labor accommodation inspection rate</t>
         </is>
       </c>
       <c r="AG74" t="inlineStr"/>
@@ -11375,7 +11388,7 @@
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>Labor accommodation inspection rate</t>
+          <t xml:space="preserve">Regulation Compliance </t>
         </is>
       </c>
       <c r="AG75" t="inlineStr"/>
@@ -11475,11 +11488,7 @@
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="inlineStr"/>
-      <c r="AF76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Regulation Compliance </t>
-        </is>
-      </c>
+      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr"/>
       <c r="AI76" t="inlineStr"/>
@@ -12011,22 +12020,24 @@
       <c r="AG80" t="n">
         <v>180</v>
       </c>
-      <c r="AH80" t="n">
+      <c r="AH80" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="AI80" t="n">
         <v>186</v>
       </c>
-      <c r="AI80" t="n">
+      <c r="AJ80" t="n">
         <v>129</v>
       </c>
-      <c r="AJ80" t="n">
+      <c r="AK80" t="n">
         <v>50</v>
       </c>
-      <c r="AK80" t="inlineStr">
+      <c r="AL80" t="inlineStr">
         <is>
           <t>Fatalities</t>
         </is>
-      </c>
-      <c r="AL80" t="n">
-        <v>0</v>
       </c>
       <c r="AM80" t="n">
         <v>0</v>
@@ -12037,57 +12048,59 @@
       <c r="AO80" t="n">
         <v>0</v>
       </c>
-      <c r="AP80" t="inlineStr">
+      <c r="AP80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ80" t="inlineStr">
         <is>
           <t>HSE Audit</t>
         </is>
       </c>
-      <c r="AQ80" t="n">
+      <c r="AR80" t="n">
         <v>3</v>
       </c>
-      <c r="AR80" t="n">
+      <c r="AS80" t="n">
         <v>5</v>
       </c>
-      <c r="AS80" t="n">
+      <c r="AT80" t="n">
         <v>4</v>
       </c>
-      <c r="AT80" t="inlineStr">
+      <c r="AU80" t="inlineStr">
         <is>
           <t>HSE</t>
         </is>
       </c>
-      <c r="AU80" t="n">
+      <c r="AV80" t="n">
         <v>6</v>
       </c>
-      <c r="AV80" t="n">
+      <c r="AW80" t="n">
         <v>22</v>
       </c>
-      <c r="AW80" t="n">
+      <c r="AX80" t="n">
         <v>12</v>
       </c>
-      <c r="AX80" t="inlineStr">
+      <c r="AY80" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="AY80" t="n">
+      <c r="AZ80" t="n">
         <v>30</v>
       </c>
-      <c r="AZ80" t="inlineStr">
+      <c r="BA80" t="inlineStr">
         <is>
           <t>Program 1</t>
         </is>
       </c>
-      <c r="BA80" t="n">
+      <c r="BB80" t="n">
         <v>50</v>
       </c>
-      <c r="BB80" t="n">
+      <c r="BC80" t="n">
         <v>25</v>
       </c>
-      <c r="BC80" t="n">
+      <c r="BD80" t="n">
         <v>20</v>
       </c>
-      <c r="BD80" t="inlineStr"/>
       <c r="BE80" t="inlineStr">
         <is>
           <t>% of CESMP mitigation measures which align with ESIA*</t>
@@ -12317,83 +12330,87 @@
       <c r="AG81" t="n">
         <v>120</v>
       </c>
-      <c r="AH81" t="n">
+      <c r="AH81" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="AI81" t="n">
         <v>16100</v>
       </c>
-      <c r="AI81" t="n">
+      <c r="AJ81" t="n">
         <v>9600</v>
       </c>
-      <c r="AJ81" t="n">
+      <c r="AK81" t="n">
         <v>6800</v>
       </c>
-      <c r="AK81" t="inlineStr">
+      <c r="AL81" t="inlineStr">
         <is>
           <t>Severe Impairment</t>
         </is>
       </c>
-      <c r="AL81" t="n">
+      <c r="AM81" t="n">
         <v>1</v>
       </c>
-      <c r="AM81" t="n">
+      <c r="AN81" t="n">
         <v>0</v>
       </c>
-      <c r="AN81" t="n">
+      <c r="AO81" t="n">
         <v>1</v>
       </c>
-      <c r="AO81" t="n">
+      <c r="AP81" t="n">
         <v>0</v>
       </c>
-      <c r="AP81" t="inlineStr">
+      <c r="AQ81" t="inlineStr">
         <is>
           <t>Welfare Inspection</t>
         </is>
       </c>
-      <c r="AQ81" t="n">
+      <c r="AR81" t="n">
         <v>2</v>
-      </c>
-      <c r="AR81" t="n">
-        <v>4</v>
       </c>
       <c r="AS81" t="n">
         <v>4</v>
       </c>
-      <c r="AT81" t="inlineStr">
+      <c r="AT81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU81" t="inlineStr">
         <is>
           <t>Welfare</t>
         </is>
       </c>
-      <c r="AU81" t="n">
+      <c r="AV81" t="n">
         <v>25</v>
       </c>
-      <c r="AV81" t="n">
+      <c r="AW81" t="n">
         <v>10</v>
       </c>
-      <c r="AW81" t="n">
+      <c r="AX81" t="n">
         <v>7</v>
       </c>
-      <c r="AX81" t="inlineStr">
+      <c r="AY81" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="AY81" t="n">
+      <c r="AZ81" t="n">
         <v>40</v>
       </c>
-      <c r="AZ81" t="inlineStr">
+      <c r="BA81" t="inlineStr">
         <is>
           <t>Program 2</t>
         </is>
       </c>
-      <c r="BA81" t="n">
+      <c r="BB81" t="n">
         <v>230</v>
       </c>
-      <c r="BB81" t="n">
+      <c r="BC81" t="n">
         <v>40</v>
       </c>
-      <c r="BC81" t="n">
+      <c r="BD81" t="n">
         <v>90</v>
       </c>
-      <c r="BD81" t="inlineStr"/>
       <c r="BE81" t="inlineStr"/>
       <c r="BF81" t="inlineStr"/>
       <c r="BG81" t="inlineStr"/>
@@ -12602,24 +12619,24 @@
       <c r="AH82" t="inlineStr"/>
       <c r="AI82" t="inlineStr"/>
       <c r="AJ82" t="inlineStr"/>
-      <c r="AK82" t="inlineStr">
+      <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr">
         <is>
           <t>Lost Time Incidents</t>
         </is>
       </c>
-      <c r="AL82" t="n">
+      <c r="AM82" t="n">
         <v>3</v>
       </c>
-      <c r="AM82" t="n">
+      <c r="AN82" t="n">
         <v>0</v>
       </c>
-      <c r="AN82" t="n">
+      <c r="AO82" t="n">
         <v>1</v>
       </c>
-      <c r="AO82" t="n">
+      <c r="AP82" t="n">
         <v>2</v>
       </c>
-      <c r="AP82" t="inlineStr"/>
       <c r="AQ82" t="inlineStr"/>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12627,29 +12644,29 @@
       <c r="AU82" t="inlineStr"/>
       <c r="AV82" t="inlineStr"/>
       <c r="AW82" t="inlineStr"/>
-      <c r="AX82" t="inlineStr">
+      <c r="AX82" t="inlineStr"/>
+      <c r="AY82" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="AY82" t="n">
+      <c r="AZ82" t="n">
         <v>38</v>
       </c>
-      <c r="AZ82" t="inlineStr">
+      <c r="BA82" t="inlineStr">
         <is>
           <t>Program 3</t>
         </is>
       </c>
-      <c r="BA82" t="n">
+      <c r="BB82" t="n">
         <v>10</v>
       </c>
-      <c r="BB82" t="n">
+      <c r="BC82" t="n">
         <v>80</v>
       </c>
-      <c r="BC82" t="n">
+      <c r="BD82" t="n">
         <v>40</v>
       </c>
-      <c r="BD82" t="inlineStr"/>
       <c r="BE82" t="inlineStr">
         <is>
           <t>Has the Construction Execution Plan been updated to reflect the latest stage of construction?</t>
@@ -12866,24 +12883,24 @@
       <c r="AH83" t="inlineStr"/>
       <c r="AI83" t="inlineStr"/>
       <c r="AJ83" t="inlineStr"/>
-      <c r="AK83" t="inlineStr">
+      <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr">
         <is>
           <t>Recordable Incidents</t>
         </is>
       </c>
-      <c r="AL83" t="n">
+      <c r="AM83" t="n">
         <v>14</v>
       </c>
-      <c r="AM83" t="n">
+      <c r="AN83" t="n">
         <v>3</v>
       </c>
-      <c r="AN83" t="n">
+      <c r="AO83" t="n">
         <v>11</v>
       </c>
-      <c r="AO83" t="n">
+      <c r="AP83" t="n">
         <v>0</v>
       </c>
-      <c r="AP83" t="inlineStr"/>
       <c r="AQ83" t="inlineStr"/>
       <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr"/>
@@ -12891,15 +12908,15 @@
       <c r="AU83" t="inlineStr"/>
       <c r="AV83" t="inlineStr"/>
       <c r="AW83" t="inlineStr"/>
-      <c r="AX83" t="inlineStr">
+      <c r="AX83" t="inlineStr"/>
+      <c r="AY83" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
       </c>
-      <c r="AY83" t="n">
+      <c r="AZ83" t="n">
         <v>35</v>
       </c>
-      <c r="AZ83" t="inlineStr"/>
       <c r="BA83" t="inlineStr"/>
       <c r="BB83" t="inlineStr"/>
       <c r="BC83" t="inlineStr"/>
@@ -13138,24 +13155,24 @@
       <c r="AH84" t="inlineStr"/>
       <c r="AI84" t="inlineStr"/>
       <c r="AJ84" t="inlineStr"/>
-      <c r="AK84" t="inlineStr">
+      <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr">
         <is>
           <t>Nears Misses</t>
         </is>
       </c>
-      <c r="AL84" t="n">
+      <c r="AM84" t="n">
         <v>26</v>
       </c>
-      <c r="AM84" t="n">
+      <c r="AN84" t="n">
         <v>2</v>
       </c>
-      <c r="AN84" t="n">
+      <c r="AO84" t="n">
         <v>21</v>
       </c>
-      <c r="AO84" t="n">
+      <c r="AP84" t="n">
         <v>3</v>
       </c>
-      <c r="AP84" t="inlineStr"/>
       <c r="AQ84" t="inlineStr"/>
       <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr"/>
@@ -13163,15 +13180,15 @@
       <c r="AU84" t="inlineStr"/>
       <c r="AV84" t="inlineStr"/>
       <c r="AW84" t="inlineStr"/>
-      <c r="AX84" t="inlineStr">
+      <c r="AX84" t="inlineStr"/>
+      <c r="AY84" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="AY84" t="n">
+      <c r="AZ84" t="n">
         <v>0</v>
       </c>
-      <c r="AZ84" t="inlineStr"/>
       <c r="BA84" t="inlineStr"/>
       <c r="BB84" t="inlineStr"/>
       <c r="BC84" t="inlineStr"/>
@@ -13403,15 +13420,15 @@
       <c r="AU85" t="inlineStr"/>
       <c r="AV85" t="inlineStr"/>
       <c r="AW85" t="inlineStr"/>
-      <c r="AX85" t="inlineStr">
+      <c r="AX85" t="inlineStr"/>
+      <c r="AY85" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
       </c>
-      <c r="AY85" t="n">
+      <c r="AZ85" t="n">
         <v>0</v>
       </c>
-      <c r="AZ85" t="inlineStr"/>
       <c r="BA85" t="inlineStr"/>
       <c r="BB85" t="inlineStr"/>
       <c r="BC85" t="inlineStr"/>
@@ -13623,15 +13640,15 @@
       <c r="AU86" t="inlineStr"/>
       <c r="AV86" t="inlineStr"/>
       <c r="AW86" t="inlineStr"/>
-      <c r="AX86" t="inlineStr">
+      <c r="AX86" t="inlineStr"/>
+      <c r="AY86" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
       </c>
-      <c r="AY86" t="n">
+      <c r="AZ86" t="n">
         <v>0</v>
       </c>
-      <c r="AZ86" t="inlineStr"/>
       <c r="BA86" t="inlineStr"/>
       <c r="BB86" t="inlineStr"/>
       <c r="BC86" t="inlineStr"/>
@@ -13831,15 +13848,15 @@
       <c r="AU87" t="inlineStr"/>
       <c r="AV87" t="inlineStr"/>
       <c r="AW87" t="inlineStr"/>
-      <c r="AX87" t="inlineStr">
+      <c r="AX87" t="inlineStr"/>
+      <c r="AY87" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
       </c>
-      <c r="AY87" t="n">
+      <c r="AZ87" t="n">
         <v>0</v>
       </c>
-      <c r="AZ87" t="inlineStr"/>
       <c r="BA87" t="inlineStr"/>
       <c r="BB87" t="inlineStr"/>
       <c r="BC87" t="inlineStr"/>
@@ -14053,15 +14070,15 @@
       <c r="AU88" t="inlineStr"/>
       <c r="AV88" t="inlineStr"/>
       <c r="AW88" t="inlineStr"/>
-      <c r="AX88" t="inlineStr">
+      <c r="AX88" t="inlineStr"/>
+      <c r="AY88" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
       </c>
-      <c r="AY88" t="n">
+      <c r="AZ88" t="n">
         <v>0</v>
       </c>
-      <c r="AZ88" t="inlineStr"/>
       <c r="BA88" t="inlineStr"/>
       <c r="BB88" t="inlineStr"/>
       <c r="BC88" t="inlineStr"/>
@@ -14271,15 +14288,15 @@
       <c r="AU89" t="inlineStr"/>
       <c r="AV89" t="inlineStr"/>
       <c r="AW89" t="inlineStr"/>
-      <c r="AX89" t="inlineStr">
+      <c r="AX89" t="inlineStr"/>
+      <c r="AY89" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
       </c>
-      <c r="AY89" t="n">
+      <c r="AZ89" t="n">
         <v>0</v>
       </c>
-      <c r="AZ89" t="inlineStr"/>
       <c r="BA89" t="inlineStr"/>
       <c r="BB89" t="inlineStr"/>
       <c r="BC89" t="inlineStr"/>
@@ -14431,15 +14448,15 @@
       <c r="AU90" t="inlineStr"/>
       <c r="AV90" t="inlineStr"/>
       <c r="AW90" t="inlineStr"/>
-      <c r="AX90" t="inlineStr">
+      <c r="AX90" t="inlineStr"/>
+      <c r="AY90" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
       </c>
-      <c r="AY90" t="n">
+      <c r="AZ90" t="n">
         <v>0</v>
       </c>
-      <c r="AZ90" t="inlineStr"/>
       <c r="BA90" t="inlineStr"/>
       <c r="BB90" t="inlineStr"/>
       <c r="BC90" t="inlineStr"/>
@@ -14611,15 +14628,15 @@
       <c r="AU91" t="inlineStr"/>
       <c r="AV91" t="inlineStr"/>
       <c r="AW91" t="inlineStr"/>
-      <c r="AX91" t="inlineStr">
+      <c r="AX91" t="inlineStr"/>
+      <c r="AY91" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
       </c>
-      <c r="AY91" t="n">
+      <c r="AZ91" t="n">
         <v>0</v>
       </c>
-      <c r="AZ91" t="inlineStr"/>
       <c r="BA91" t="inlineStr"/>
       <c r="BB91" t="inlineStr"/>
       <c r="BC91" t="inlineStr"/>
@@ -22880,4 +22897,1325 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cost Estimation &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actual Cost (AC)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Actual Cost  is the total cost incurred for work completed on a project at a given point in time. It includes all direct and indirect costs spent on labor, materials, equipment, and other expenses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cost Estimation &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Aggregated Budget Variance</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Cumulative difference between total budgeted figures and actual results across multiple categories or projects, highlighting overall financial performance deviations within a specific period</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Planning &amp; Monitoring</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Aggregated SPI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Indication of overall schedule performance at DevCo level</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Development &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Annual Procurement Plan / Strategy</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The Procurement Plan is required to be reviewed and updated by the DevCo as a minimum annually and submitted to PIF for approval in accordance with the requirements of the Project Execution Plan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Authority</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Each development stage requires approval. The Authority is the relevant party responsible for the approval at the relevant stage (e.g. CEO, Founding Board etc.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Design &amp; Technical</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BUA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Built Up Area (BUA) is the total area being developed or constructed. It is the Gross Floor Area (GFA) plus Parking plus any Service Area.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cost Estimation &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Budget Variance (BV)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Extent of variance in budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cost Estimation &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Budget At Completion (BAC)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>The Budget at Completion (BAC) represents the total budgeted cost for all the work planned for a project</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cost Estimation &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Estimate To Complete (ETC)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>The estimated cost required to complete the remaining work of a project</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cost Estimation &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Estimate At Completion (EAC)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total forecasted cost of the project based on the ongoing </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Business Plan</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Documentation developed by PIF informing the Vision and key objectives of the project</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Change Management Log</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>A document summarising the status of all proposed and approved Variations</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Change Management Procedure</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Procedural document stipulating the requirements to be met when administering any amendment to a Contract or Project.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cost Estimate &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Contingency Utilization Rate (CUR)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Percentage of a project’s allocated contingency fund that has been used to address unforeseen costs or risks, reflecting the efficiency of contingency planning and management.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Development &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Contract Management Policy</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>A policy outlining award and management of contracts between DevCo and Vendors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cost Estimate &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cost Estimate and Optimization (CE&amp;O)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Technical function which covers cost benchmarks for development of budgets, and cost optimization levers</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cost Estimate &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Cost Report</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A document provided on an interim basis to inform of the current financial status of a Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Design &amp; Technical</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Design and Technical (D&amp;T)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Technical Function which covers all design-related topics of a project including architecture, engineering, masterplanning, infrastructure and environment &amp; sustainability</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Development &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Development and Construction (D&amp;C)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Technical function which covers construction project execution plans, contract management and procurement, and construction quality and Health, Safety and Environment (HSE) topics</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Planning &amp; Monitoring</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Earned Value (EV)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Value of the work that is completed at a given time, measured against the budgeted cost.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Planning &amp; Monitoring</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Extension of Time (EOT)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Extension of Time is a contractual provision in construction allowing the project completion date to be extended due to unforeseen delays beyond the contractor’s control, ensuring fairness and mitigating penalties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Design &amp; Technical</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Gross Floor Area (GFA)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Gross Floor Area (GFA) is the total floor area of a building including any underground saleable or leasable area but excluding parking and underground technical/service areas. The GFA is calculated based on the distance from external wall to external wall.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Innovation &amp; Technology</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Innovation and Technology (I&amp;T)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Technical function which covers incorporation of high-impact advanced technologies and methodologies across the entire project life cycle, and implementation of smart city use cases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Development &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Inspection Test Plan (ITP)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A document which specifies the manatory Inspection, Witness and Hold Points throughout construction that must be verified by a suitably qualified person before works are authorised to proceed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Key Performance Indicator (KPI)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Key quantifiable indicators of progress toward an intended result</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Development &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Non-Conformance Report (NCR)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Non-Conformance Report is a quality management document that identifies, tracks, and records deviations from specified standards, facilitating process improvement and quality control.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cost Estimate &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Planned Budget (PB)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It represents how much is expected to be spent at a given point in time from the Approved Over All Budget (BAC)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Planning &amp; Monitoring</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Planned Value (PV)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>The amount of work that was planned to be completed at a given time as per the approved Schedule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Planning &amp; Monitoring</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Planning and Monitoring (P&amp;M)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Technical Function which covers schedule development and monitoring, and risk management</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Development &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Procurement Strategy</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Methodical approach for determining the contractural relationship and agreements between DevCo and Vendors</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Development &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Procurement Procedures Manual</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>A manual which details every aspect of the tendering and overall procurement activities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Development &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Project Execution Plan (PEP)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Project Execution Plan prepared initially by PIF as part of the Business Plan Stage, which is then passed to the DevCo to lead, review and update from Masterplan Stage onwards</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Development &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Request For Information (RFI)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A formal communication tool for requesing information </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Development &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Rework Cost</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Indication of the rework done due to quality, design etc issues</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Planning &amp; Monitoring</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Schedule Performance Index (SPI)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Indication of project schedule performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cost Estimate &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Soft Cost</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Soft costs are indirect, non-physical expenses in a construction project that are not directly tied to labor, materials, or physical construction work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Stage</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>The description of the Project Stage as per Development Company and PIF terminology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Strategy &amp; Operations</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Strategy &amp; Organization</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Technical Function which covers topics around strategy development and execution, people and tools.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Design &amp; Technical</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Value Engineering</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Process to derive greater value within a Project seeking improvement in time and/ or cost outcomes</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Development &amp; Construction</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Vendor Database</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>A database of Vendors, including pre-qualified Vendors, Vendor appraisal and performance assessment and a list of blacklisted Vendors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/master_sheet.xlsx
+++ b/master_sheet.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Glossary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="OrgChart" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31537,7 +31538,7 @@
       <c r="CL202" t="inlineStr"/>
       <c r="CM202" t="inlineStr"/>
       <c r="CN202" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CO202" t="n">
         <v>2</v>
@@ -31821,7 +31822,7 @@
       <c r="CL203" t="inlineStr"/>
       <c r="CM203" t="inlineStr"/>
       <c r="CN203" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CO203" t="n">
         <v>2</v>
@@ -32105,7 +32106,7 @@
       <c r="CL204" t="inlineStr"/>
       <c r="CM204" t="inlineStr"/>
       <c r="CN204" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO204" t="n">
         <v>2</v>
@@ -32377,7 +32378,7 @@
       <c r="CL205" t="inlineStr"/>
       <c r="CM205" t="inlineStr"/>
       <c r="CN205" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO205" t="n">
         <v>3</v>
@@ -32681,7 +32682,7 @@
       <c r="CL206" t="inlineStr"/>
       <c r="CM206" t="inlineStr"/>
       <c r="CN206" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CO206" t="n">
         <v>3</v>
@@ -32945,7 +32946,7 @@
       <c r="CL207" t="inlineStr"/>
       <c r="CM207" t="inlineStr"/>
       <c r="CN207" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CO207" t="n">
         <v>3</v>
@@ -33201,7 +33202,7 @@
       <c r="CL208" t="inlineStr"/>
       <c r="CM208" t="inlineStr"/>
       <c r="CN208" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CO208" t="n">
         <v>3</v>
@@ -59848,4 +59849,695 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DevCo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EmployeeID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ManagerID</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sub-Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Diriyah</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Chief Development Officer</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Diriyah</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Diriyah</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Diriyah</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Masterplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Diriyah</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>HSE</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Diriyah</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Chief Devt</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Diriyah</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Chief Devt</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Diriyah</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Vacant</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Chief Devt</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Diriyah</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Vacant</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Project Lead</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Diriyah</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Project Lead</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Diriyah</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Project Lead</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Diriyah</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Lead</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Stakeholder Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Qiddiya</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Chief Development Officer</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Qiddiya</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Qiddiya</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Qiddiya</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Masterplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Qiddiya</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Vacant</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Chief Devt</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Qiddiya</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Vacant</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Chief Devt</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Qiddiya</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Vacant</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Chief Devt</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Qiddiya</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Vacant</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Project Lead</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>MP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Qiddiya</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Project Lead</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Qiddiya</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Project Lead</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>MP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Qiddiya</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Lead</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Stakeholder Interface</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>